--- a/Saturday_Abhidhamma_Lesson/ecps.xlsx
+++ b/Saturday_Abhidhamma_Lesson/ecps.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1165CB-44BE-446D-A289-CEACD1D5899C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E123C7DF-5B11-4A60-95C1-AD37238855DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27105" yWindow="1890" windowWidth="22185" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$T$148</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$T$148</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1096,38 +1097,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1135,18 +1106,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1157,47 +1116,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1210,47 +1136,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
@@ -1291,12 +1178,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1304,6 +1185,126 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1618,30 +1619,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="22"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="93"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="105" t="s">
+      <c r="H2" s="63"/>
+      <c r="I2" s="65" t="s">
         <v>121</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -1671,33 +1672,33 @@
       <c r="R2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="106" t="s">
+      <c r="S2" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="T2" s="104"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59">
+      <c r="A3" s="34">
         <v>1</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="84">
+      <c r="E3" s="38"/>
+      <c r="F3" s="46">
         <v>1</v>
       </c>
-      <c r="G3" s="84">
+      <c r="G3" s="46">
         <v>370</v>
       </c>
-      <c r="H3" s="90"/>
-      <c r="I3" s="91" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="53" t="s">
         <v>77</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -1735,23 +1736,23 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="60">
+      <c r="A4" s="35">
         <v>2</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="33" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="77"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="16">
         <v>1</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="92" t="s">
+      <c r="H4" s="39"/>
+      <c r="I4" s="54" t="s">
         <v>77</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -1789,23 +1790,23 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="60">
+      <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="34" t="s">
+      <c r="B5" s="99"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="77"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="16">
         <v>1</v>
       </c>
       <c r="G5" s="16">
         <v>387</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="92" t="s">
+      <c r="H5" s="39"/>
+      <c r="I5" s="54" t="s">
         <v>77</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -1843,23 +1844,23 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="60">
+      <c r="A6" s="35">
         <v>4</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="34" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="77"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="16">
         <v>1</v>
       </c>
       <c r="G6" s="16">
         <v>387</v>
       </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="92" t="s">
+      <c r="H6" s="39"/>
+      <c r="I6" s="54" t="s">
         <v>77</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1897,23 +1898,23 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="60">
+      <c r="A7" s="35">
         <v>5</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="34" t="s">
+      <c r="B7" s="99"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="77"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="16">
         <v>1</v>
       </c>
       <c r="G7" s="16">
         <v>389</v>
       </c>
-      <c r="H7" s="77"/>
-      <c r="I7" s="92" t="s">
+      <c r="H7" s="39"/>
+      <c r="I7" s="54" t="s">
         <v>77</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -1951,23 +1952,23 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="60">
+      <c r="A8" s="35">
         <v>6</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="34" t="s">
+      <c r="B8" s="99"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="77"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="16">
         <v>1</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="92" t="s">
+      <c r="H8" s="39"/>
+      <c r="I8" s="54" t="s">
         <v>77</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -2005,23 +2006,23 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="60">
+      <c r="A9" s="35">
         <v>7</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="34" t="s">
+      <c r="B9" s="99"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="77"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="16">
         <v>1</v>
       </c>
       <c r="G9" s="16">
         <v>391</v>
       </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="92" t="s">
+      <c r="H9" s="39"/>
+      <c r="I9" s="54" t="s">
         <v>77</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -2059,23 +2060,23 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="60">
+      <c r="A10" s="35">
         <v>8</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="34" t="s">
+      <c r="B10" s="99"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="77"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="16">
         <v>1</v>
       </c>
       <c r="G10" s="16">
         <v>391</v>
       </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="92" t="s">
+      <c r="H10" s="39"/>
+      <c r="I10" s="54" t="s">
         <v>77</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -2113,25 +2114,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="60">
+      <c r="A11" s="35">
         <v>9</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="101" t="s">
+      <c r="B11" s="99"/>
+      <c r="C11" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="77"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="16">
         <v>1</v>
       </c>
       <c r="G11" s="16">
         <v>392</v>
       </c>
-      <c r="H11" s="77"/>
-      <c r="I11" s="92" t="s">
+      <c r="H11" s="39"/>
+      <c r="I11" s="54" t="s">
         <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -2169,23 +2170,23 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="60">
+      <c r="A12" s="35">
         <v>10</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="34" t="s">
+      <c r="B12" s="99"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="77"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="16">
         <v>1</v>
       </c>
       <c r="G12" s="16">
         <v>392</v>
       </c>
-      <c r="H12" s="77"/>
-      <c r="I12" s="92" t="s">
+      <c r="H12" s="39"/>
+      <c r="I12" s="54" t="s">
         <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -2223,25 +2224,25 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="60">
+      <c r="A13" s="35">
         <v>11</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="101" t="s">
+      <c r="B13" s="99"/>
+      <c r="C13" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="77"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="16">
         <v>1</v>
       </c>
       <c r="G13" s="16">
         <v>393</v>
       </c>
-      <c r="H13" s="77"/>
-      <c r="I13" s="92" t="s">
+      <c r="H13" s="39"/>
+      <c r="I13" s="54" t="s">
         <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -2277,23 +2278,23 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="61">
+      <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="35" t="s">
+      <c r="B14" s="100"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="78"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="17">
         <v>1</v>
       </c>
       <c r="G14" s="17">
         <v>394</v>
       </c>
-      <c r="H14" s="78"/>
-      <c r="I14" s="93" t="s">
+      <c r="H14" s="40"/>
+      <c r="I14" s="55" t="s">
         <v>77</v>
       </c>
       <c r="J14" s="6" t="s">
@@ -2331,27 +2332,27 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62">
+      <c r="A15" s="102">
         <v>13</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="85" t="s">
+      <c r="E15" s="38"/>
+      <c r="F15" s="47" t="s">
         <v>100</v>
       </c>
       <c r="G15" s="15">
         <v>418</v>
       </c>
-      <c r="H15" s="76"/>
-      <c r="I15" s="91"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="53"/>
       <c r="J15" s="3" t="s">
         <v>78</v>
       </c>
@@ -2383,19 +2384,19 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="86" t="s">
+      <c r="A16" s="94"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G16" s="16">
         <v>450</v>
       </c>
-      <c r="H16" s="77"/>
-      <c r="I16" s="94" t="s">
+      <c r="H16" s="39"/>
+      <c r="I16" s="56" t="s">
         <v>99</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -2429,23 +2430,23 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="63">
+      <c r="A17" s="94">
         <v>14</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="38" t="s">
+      <c r="B17" s="99"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="86" t="s">
+      <c r="E17" s="39"/>
+      <c r="F17" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G17" s="16">
         <v>419</v>
       </c>
-      <c r="H17" s="77"/>
-      <c r="I17" s="92"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="54"/>
       <c r="J17" s="1" t="s">
         <v>78</v>
       </c>
@@ -2477,19 +2478,19 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="86" t="s">
+      <c r="A18" s="94"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G18" s="16">
         <v>451</v>
       </c>
-      <c r="H18" s="77"/>
-      <c r="I18" s="94" t="s">
+      <c r="H18" s="39"/>
+      <c r="I18" s="56" t="s">
         <v>99</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -2523,23 +2524,23 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63">
+      <c r="A19" s="94">
         <v>15</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="38" t="s">
+      <c r="B19" s="99"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="86" t="s">
+      <c r="E19" s="39"/>
+      <c r="F19" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G19" s="16">
         <v>419</v>
       </c>
-      <c r="H19" s="77"/>
-      <c r="I19" s="92"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="1" t="s">
         <v>78</v>
       </c>
@@ -2571,19 +2572,19 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="63"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="86" t="s">
+      <c r="A20" s="94"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G20" s="16">
         <v>451</v>
       </c>
-      <c r="H20" s="77"/>
-      <c r="I20" s="94" t="s">
+      <c r="H20" s="39"/>
+      <c r="I20" s="56" t="s">
         <v>99</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -2617,23 +2618,23 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63">
+      <c r="A21" s="94">
         <v>16</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="38" t="s">
+      <c r="B21" s="99"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="86" t="s">
+      <c r="E21" s="39"/>
+      <c r="F21" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G21" s="16">
         <v>419</v>
       </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="92"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="1" t="s">
         <v>78</v>
       </c>
@@ -2665,19 +2666,19 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="63"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="86" t="s">
+      <c r="A22" s="94"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G22" s="16">
         <v>451</v>
       </c>
-      <c r="H22" s="77"/>
-      <c r="I22" s="94" t="s">
+      <c r="H22" s="39"/>
+      <c r="I22" s="56" t="s">
         <v>99</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -2711,23 +2712,23 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="63">
+      <c r="A23" s="94">
         <v>17</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="38" t="s">
+      <c r="B23" s="99"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="86" t="s">
+      <c r="E23" s="39"/>
+      <c r="F23" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G23" s="16">
         <v>419</v>
       </c>
-      <c r="H23" s="77"/>
-      <c r="I23" s="92"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="1" t="s">
         <v>78</v>
       </c>
@@ -2759,19 +2760,19 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="63"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="86" t="s">
+      <c r="A24" s="94"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G24" s="16">
         <v>451</v>
       </c>
-      <c r="H24" s="77"/>
-      <c r="I24" s="94" t="s">
+      <c r="H24" s="39"/>
+      <c r="I24" s="56" t="s">
         <v>99</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -2805,23 +2806,23 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="63">
+      <c r="A25" s="94">
         <v>18</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="38" t="s">
+      <c r="B25" s="99"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="77"/>
-      <c r="F25" s="86" t="s">
+      <c r="E25" s="39"/>
+      <c r="F25" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G25" s="16">
         <v>420</v>
       </c>
-      <c r="H25" s="77"/>
-      <c r="I25" s="92"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="1" t="s">
         <v>78</v>
       </c>
@@ -2855,19 +2856,19 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="63"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="86" t="s">
+      <c r="A26" s="94"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G26" s="16">
         <v>452</v>
       </c>
-      <c r="H26" s="77"/>
-      <c r="I26" s="94" t="s">
+      <c r="H26" s="39"/>
+      <c r="I26" s="56" t="s">
         <v>99</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -2903,23 +2904,23 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="63">
+      <c r="A27" s="94">
         <v>19</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="38" t="s">
+      <c r="B27" s="99"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="86" t="s">
+      <c r="E27" s="39"/>
+      <c r="F27" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G27" s="16">
         <v>421</v>
       </c>
-      <c r="H27" s="77"/>
-      <c r="I27" s="92"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="1" t="s">
         <v>78</v>
       </c>
@@ -2953,19 +2954,19 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="63"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="87" t="s">
+      <c r="A28" s="94"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="88">
+      <c r="G28" s="50">
         <v>453</v>
       </c>
-      <c r="H28" s="79"/>
-      <c r="I28" s="95" t="s">
+      <c r="H28" s="41"/>
+      <c r="I28" s="57" t="s">
         <v>99</v>
       </c>
       <c r="J28" s="11" t="s">
@@ -3001,25 +3002,25 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="63">
+      <c r="A29" s="94">
         <v>20</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="25" t="s">
+      <c r="B29" s="99"/>
+      <c r="C29" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="76"/>
-      <c r="F29" s="85" t="s">
+      <c r="E29" s="38"/>
+      <c r="F29" s="47" t="s">
         <v>100</v>
       </c>
       <c r="G29" s="15">
         <v>404</v>
       </c>
-      <c r="H29" s="76"/>
-      <c r="I29" s="91"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="53"/>
       <c r="J29" s="3" t="s">
         <v>78</v>
       </c>
@@ -3051,19 +3052,19 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="63"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="86" t="s">
+      <c r="A30" s="94"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G30" s="16">
         <v>439</v>
       </c>
-      <c r="H30" s="77"/>
-      <c r="I30" s="96" t="s">
+      <c r="H30" s="39"/>
+      <c r="I30" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -3097,23 +3098,23 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="63">
+      <c r="A31" s="94">
         <v>21</v>
       </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="38" t="s">
+      <c r="B31" s="99"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="77"/>
-      <c r="F31" s="86" t="s">
+      <c r="E31" s="39"/>
+      <c r="F31" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G31" s="16">
         <v>408</v>
       </c>
-      <c r="H31" s="77"/>
-      <c r="I31" s="92"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="1" t="s">
         <v>78</v>
       </c>
@@ -3145,19 +3146,19 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="63"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="86" t="s">
+      <c r="A32" s="94"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G32" s="16">
         <v>440</v>
       </c>
-      <c r="H32" s="77"/>
-      <c r="I32" s="96" t="s">
+      <c r="H32" s="39"/>
+      <c r="I32" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -3191,23 +3192,23 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="63">
+      <c r="A33" s="94">
         <v>22</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="37" t="s">
+      <c r="B33" s="99"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="77"/>
-      <c r="F33" s="86" t="s">
+      <c r="E33" s="39"/>
+      <c r="F33" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G33" s="16">
         <v>408</v>
       </c>
-      <c r="H33" s="77"/>
-      <c r="I33" s="92"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="1" t="s">
         <v>78</v>
       </c>
@@ -3239,19 +3240,19 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="63"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="86" t="s">
+      <c r="A34" s="94"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G34" s="16">
         <v>440</v>
       </c>
-      <c r="H34" s="77"/>
-      <c r="I34" s="96" t="s">
+      <c r="H34" s="39"/>
+      <c r="I34" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -3285,23 +3286,23 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="63">
+      <c r="A35" s="94">
         <v>23</v>
       </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="37" t="s">
+      <c r="B35" s="99"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="77"/>
-      <c r="F35" s="86" t="s">
+      <c r="E35" s="39"/>
+      <c r="F35" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G35" s="16">
         <v>408</v>
       </c>
-      <c r="H35" s="77"/>
-      <c r="I35" s="92"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="1" t="s">
         <v>78</v>
       </c>
@@ -3333,19 +3334,19 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="63"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="86" t="s">
+      <c r="A36" s="94"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G36" s="16">
         <v>440</v>
       </c>
-      <c r="H36" s="77"/>
-      <c r="I36" s="96" t="s">
+      <c r="H36" s="39"/>
+      <c r="I36" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -3379,23 +3380,23 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="63">
+      <c r="A37" s="94">
         <v>24</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="37" t="s">
+      <c r="B37" s="99"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="86" t="s">
+      <c r="E37" s="39"/>
+      <c r="F37" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G37" s="16">
         <v>408</v>
       </c>
-      <c r="H37" s="77"/>
-      <c r="I37" s="92"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="1" t="s">
         <v>78</v>
       </c>
@@ -3427,19 +3428,19 @@
       </c>
     </row>
     <row r="38" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="63"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="86" t="s">
+      <c r="A38" s="94"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G38" s="16">
         <v>440</v>
       </c>
-      <c r="H38" s="77"/>
-      <c r="I38" s="96" t="s">
+      <c r="H38" s="39"/>
+      <c r="I38" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -3473,23 +3474,23 @@
       </c>
     </row>
     <row r="39" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="63">
+      <c r="A39" s="94">
         <v>25</v>
       </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="37" t="s">
+      <c r="B39" s="99"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="86" t="s">
+      <c r="E39" s="39"/>
+      <c r="F39" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G39" s="16">
         <v>409</v>
       </c>
-      <c r="H39" s="77"/>
-      <c r="I39" s="92"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="1" t="s">
         <v>78</v>
       </c>
@@ -3523,19 +3524,19 @@
       </c>
     </row>
     <row r="40" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="63"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="86" t="s">
+      <c r="A40" s="94"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G40" s="16">
         <v>441</v>
       </c>
-      <c r="H40" s="77"/>
-      <c r="I40" s="96" t="s">
+      <c r="H40" s="39"/>
+      <c r="I40" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -3571,23 +3572,23 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="63">
+      <c r="A41" s="94">
         <v>26</v>
       </c>
-      <c r="B41" s="70"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="37" t="s">
+      <c r="B41" s="99"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="77"/>
-      <c r="F41" s="86" t="s">
+      <c r="E41" s="39"/>
+      <c r="F41" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G41" s="16">
         <v>410</v>
       </c>
-      <c r="H41" s="77"/>
-      <c r="I41" s="92"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="1" t="s">
         <v>78</v>
       </c>
@@ -3621,19 +3622,19 @@
       </c>
     </row>
     <row r="42" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="63"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="86" t="s">
+      <c r="A42" s="94"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G42" s="16">
         <v>442</v>
       </c>
-      <c r="H42" s="77"/>
-      <c r="I42" s="96" t="s">
+      <c r="H42" s="39"/>
+      <c r="I42" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J42" s="1" t="s">
@@ -3669,23 +3670,23 @@
       </c>
     </row>
     <row r="43" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="63">
+      <c r="A43" s="94">
         <v>27</v>
       </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="38" t="s">
+      <c r="B43" s="99"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="77"/>
-      <c r="F43" s="86" t="s">
+      <c r="E43" s="39"/>
+      <c r="F43" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G43" s="16">
         <v>411</v>
       </c>
-      <c r="H43" s="77"/>
-      <c r="I43" s="92"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="54"/>
       <c r="J43" s="1" t="s">
         <v>78</v>
       </c>
@@ -3719,19 +3720,19 @@
       </c>
     </row>
     <row r="44" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="63"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="87" t="s">
+      <c r="A44" s="94"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="G44" s="88">
+      <c r="G44" s="50">
         <v>443</v>
       </c>
-      <c r="H44" s="79"/>
-      <c r="I44" s="97" t="s">
+      <c r="H44" s="41"/>
+      <c r="I44" s="59" t="s">
         <v>132</v>
       </c>
       <c r="J44" s="11" t="s">
@@ -3767,25 +3768,25 @@
       </c>
     </row>
     <row r="45" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="60">
+      <c r="A45" s="35">
         <v>28</v>
       </c>
-      <c r="B45" s="70"/>
-      <c r="C45" s="25" t="s">
+      <c r="B45" s="99"/>
+      <c r="C45" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="76"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="15">
         <v>1</v>
       </c>
       <c r="G45" s="15">
         <v>422</v>
       </c>
-      <c r="H45" s="76"/>
-      <c r="I45" s="91"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="53"/>
       <c r="J45" s="3" t="s">
         <v>78</v>
       </c>
@@ -3819,23 +3820,23 @@
       </c>
     </row>
     <row r="46" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="60">
+      <c r="A46" s="35">
         <v>29</v>
       </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="41" t="s">
+      <c r="B46" s="99"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="77"/>
+      <c r="E46" s="39"/>
       <c r="F46" s="16">
         <v>1</v>
       </c>
       <c r="G46" s="16">
         <v>424</v>
       </c>
-      <c r="H46" s="77"/>
-      <c r="I46" s="92"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="54"/>
       <c r="J46" s="1" t="s">
         <v>78</v>
       </c>
@@ -3869,23 +3870,23 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="61">
+      <c r="A47" s="36">
         <v>30</v>
       </c>
-      <c r="B47" s="72"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="42" t="s">
+      <c r="B47" s="101"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="79"/>
-      <c r="F47" s="88">
+      <c r="E47" s="41"/>
+      <c r="F47" s="50">
         <v>1</v>
       </c>
-      <c r="G47" s="88">
+      <c r="G47" s="50">
         <v>423</v>
       </c>
-      <c r="H47" s="79"/>
-      <c r="I47" s="98"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="60"/>
       <c r="J47" s="11" t="s">
         <v>78</v>
       </c>
@@ -3919,27 +3920,27 @@
       </c>
     </row>
     <row r="48" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="62">
+      <c r="A48" s="102">
         <v>31</v>
       </c>
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D48" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="76"/>
-      <c r="F48" s="85" t="s">
+      <c r="E48" s="38"/>
+      <c r="F48" s="47" t="s">
         <v>100</v>
       </c>
       <c r="G48" s="15">
         <v>395</v>
       </c>
-      <c r="H48" s="76"/>
-      <c r="I48" s="99" t="s">
+      <c r="H48" s="38"/>
+      <c r="I48" s="61" t="s">
         <v>132</v>
       </c>
       <c r="J48" s="3" t="s">
@@ -3977,19 +3978,19 @@
       </c>
     </row>
     <row r="49" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="63"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="86" t="s">
+      <c r="A49" s="94"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G49" s="16">
         <v>433</v>
       </c>
-      <c r="H49" s="77"/>
-      <c r="I49" s="96" t="s">
+      <c r="H49" s="39"/>
+      <c r="I49" s="58" t="s">
         <v>77</v>
       </c>
       <c r="J49" s="1" t="s">
@@ -4027,23 +4028,23 @@
       </c>
     </row>
     <row r="50" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="63">
+      <c r="A50" s="94">
         <v>32</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="38" t="s">
+      <c r="B50" s="99"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="77"/>
-      <c r="F50" s="86" t="s">
+      <c r="E50" s="39"/>
+      <c r="F50" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G50" s="16">
         <v>397</v>
       </c>
-      <c r="H50" s="77"/>
-      <c r="I50" s="96" t="s">
+      <c r="H50" s="39"/>
+      <c r="I50" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J50" s="1" t="s">
@@ -4081,19 +4082,19 @@
       </c>
     </row>
     <row r="51" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="63"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="86" t="s">
+      <c r="A51" s="94"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G51" s="16">
         <v>434</v>
       </c>
-      <c r="H51" s="77"/>
-      <c r="I51" s="96" t="s">
+      <c r="H51" s="39"/>
+      <c r="I51" s="58" t="s">
         <v>77</v>
       </c>
       <c r="J51" s="1" t="s">
@@ -4131,23 +4132,23 @@
       </c>
     </row>
     <row r="52" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="63">
+      <c r="A52" s="94">
         <v>33</v>
       </c>
-      <c r="B52" s="70"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="43" t="s">
+      <c r="B52" s="99"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="77"/>
-      <c r="F52" s="86" t="s">
+      <c r="E52" s="39"/>
+      <c r="F52" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G52" s="16">
         <v>397</v>
       </c>
-      <c r="H52" s="77"/>
-      <c r="I52" s="96" t="s">
+      <c r="H52" s="39"/>
+      <c r="I52" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -4185,19 +4186,19 @@
       </c>
     </row>
     <row r="53" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="63"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="86" t="s">
+      <c r="A53" s="94"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G53" s="16">
         <v>434</v>
       </c>
-      <c r="H53" s="77"/>
-      <c r="I53" s="96" t="s">
+      <c r="H53" s="39"/>
+      <c r="I53" s="58" t="s">
         <v>77</v>
       </c>
       <c r="J53" s="1" t="s">
@@ -4235,23 +4236,23 @@
       </c>
     </row>
     <row r="54" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="63">
+      <c r="A54" s="94">
         <v>34</v>
       </c>
-      <c r="B54" s="70"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="38" t="s">
+      <c r="B54" s="99"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="E54" s="77"/>
-      <c r="F54" s="86" t="s">
+      <c r="E54" s="39"/>
+      <c r="F54" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G54" s="16">
         <v>397</v>
       </c>
-      <c r="H54" s="77"/>
-      <c r="I54" s="96" t="s">
+      <c r="H54" s="39"/>
+      <c r="I54" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J54" s="1" t="s">
@@ -4289,19 +4290,19 @@
       </c>
     </row>
     <row r="55" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="63"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="86" t="s">
+      <c r="A55" s="94"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G55" s="16">
         <v>434</v>
       </c>
-      <c r="H55" s="77"/>
-      <c r="I55" s="96" t="s">
+      <c r="H55" s="39"/>
+      <c r="I55" s="58" t="s">
         <v>77</v>
       </c>
       <c r="J55" s="1" t="s">
@@ -4339,23 +4340,23 @@
       </c>
     </row>
     <row r="56" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="63">
+      <c r="A56" s="94">
         <v>35</v>
       </c>
-      <c r="B56" s="70"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="43" t="s">
+      <c r="B56" s="99"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="77"/>
-      <c r="F56" s="86" t="s">
+      <c r="E56" s="39"/>
+      <c r="F56" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G56" s="16">
         <v>398</v>
       </c>
-      <c r="H56" s="77"/>
-      <c r="I56" s="96" t="s">
+      <c r="H56" s="39"/>
+      <c r="I56" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J56" s="1" t="s">
@@ -4393,19 +4394,19 @@
       </c>
     </row>
     <row r="57" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="63"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="86" t="s">
+      <c r="A57" s="94"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G57" s="16">
         <v>434</v>
       </c>
-      <c r="H57" s="77"/>
-      <c r="I57" s="96" t="s">
+      <c r="H57" s="39"/>
+      <c r="I57" s="58" t="s">
         <v>77</v>
       </c>
       <c r="J57" s="1" t="s">
@@ -4443,23 +4444,23 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="63">
+      <c r="A58" s="94">
         <v>36</v>
       </c>
-      <c r="B58" s="70"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="43" t="s">
+      <c r="B58" s="99"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="77"/>
-      <c r="F58" s="86" t="s">
+      <c r="E58" s="39"/>
+      <c r="F58" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G58" s="16">
         <v>398</v>
       </c>
-      <c r="H58" s="77"/>
-      <c r="I58" s="96" t="s">
+      <c r="H58" s="39"/>
+      <c r="I58" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J58" s="1" t="s">
@@ -4497,19 +4498,19 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="63"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="86" t="s">
+      <c r="A59" s="94"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G59" s="16">
         <v>434</v>
       </c>
-      <c r="H59" s="77"/>
-      <c r="I59" s="96" t="s">
+      <c r="H59" s="39"/>
+      <c r="I59" s="58" t="s">
         <v>77</v>
       </c>
       <c r="J59" s="1" t="s">
@@ -4547,23 +4548,23 @@
       </c>
     </row>
     <row r="60" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="63">
+      <c r="A60" s="94">
         <v>37</v>
       </c>
-      <c r="B60" s="70"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="43" t="s">
+      <c r="B60" s="99"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="E60" s="77"/>
-      <c r="F60" s="86" t="s">
+      <c r="E60" s="39"/>
+      <c r="F60" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G60" s="16">
         <v>399</v>
       </c>
-      <c r="H60" s="77"/>
-      <c r="I60" s="96" t="s">
+      <c r="H60" s="39"/>
+      <c r="I60" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J60" s="1" t="s">
@@ -4601,19 +4602,19 @@
       </c>
     </row>
     <row r="61" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="63"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="86" t="s">
+      <c r="A61" s="94"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G61" s="16">
         <v>434</v>
       </c>
-      <c r="H61" s="77"/>
-      <c r="I61" s="96" t="s">
+      <c r="H61" s="39"/>
+      <c r="I61" s="58" t="s">
         <v>77</v>
       </c>
       <c r="J61" s="1" t="s">
@@ -4651,23 +4652,23 @@
       </c>
     </row>
     <row r="62" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="63">
+      <c r="A62" s="94">
         <v>38</v>
       </c>
-      <c r="B62" s="70"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="43" t="s">
+      <c r="B62" s="99"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="E62" s="77"/>
-      <c r="F62" s="86" t="s">
+      <c r="E62" s="39"/>
+      <c r="F62" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G62" s="16">
         <v>399</v>
       </c>
-      <c r="H62" s="77"/>
-      <c r="I62" s="96" t="s">
+      <c r="H62" s="39"/>
+      <c r="I62" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J62" s="1" t="s">
@@ -4705,19 +4706,19 @@
       </c>
     </row>
     <row r="63" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="63"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="89" t="s">
+      <c r="A63" s="94"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="103"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="51" t="s">
         <v>101</v>
       </c>
       <c r="G63" s="17">
         <v>434</v>
       </c>
-      <c r="H63" s="78"/>
-      <c r="I63" s="100" t="s">
+      <c r="H63" s="40"/>
+      <c r="I63" s="62" t="s">
         <v>77</v>
       </c>
       <c r="J63" s="6" t="s">
@@ -4735,13 +4736,13 @@
       <c r="N63" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="O63" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="P63" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q63" s="23" t="s">
+      <c r="O63" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="P63" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q63" s="20" t="s">
         <v>103</v>
       </c>
       <c r="R63" s="6" t="s">
@@ -4755,25 +4756,25 @@
       </c>
     </row>
     <row r="64" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="64">
+      <c r="A64" s="71">
         <v>39</v>
       </c>
-      <c r="B64" s="70"/>
-      <c r="C64" s="25" t="s">
+      <c r="B64" s="99"/>
+      <c r="C64" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="D64" s="45" t="s">
+      <c r="D64" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="E64" s="76"/>
-      <c r="F64" s="85" t="s">
+      <c r="E64" s="38"/>
+      <c r="F64" s="47" t="s">
         <v>100</v>
       </c>
       <c r="G64" s="15">
         <v>412</v>
       </c>
-      <c r="H64" s="76"/>
-      <c r="I64" s="91"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="53"/>
       <c r="J64" s="3" t="s">
         <v>78</v>
       </c>
@@ -4809,19 +4810,19 @@
       </c>
     </row>
     <row r="65" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="65"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="86" t="s">
+      <c r="A65" s="72"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G65" s="16">
         <v>444</v>
       </c>
-      <c r="H65" s="77"/>
-      <c r="I65" s="96" t="s">
+      <c r="H65" s="39"/>
+      <c r="I65" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J65" s="1" t="s">
@@ -4859,23 +4860,23 @@
       </c>
     </row>
     <row r="66" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="64">
+      <c r="A66" s="71">
         <v>40</v>
       </c>
-      <c r="B66" s="70"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="47" t="s">
+      <c r="B66" s="99"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E66" s="77"/>
-      <c r="F66" s="86" t="s">
+      <c r="E66" s="39"/>
+      <c r="F66" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G66" s="16">
         <v>413</v>
       </c>
-      <c r="H66" s="77"/>
-      <c r="I66" s="92"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="54"/>
       <c r="J66" s="1" t="s">
         <v>78</v>
       </c>
@@ -4911,19 +4912,19 @@
       </c>
     </row>
     <row r="67" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="65"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="86" t="s">
+      <c r="A67" s="72"/>
+      <c r="B67" s="99"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G67" s="16">
         <v>445</v>
       </c>
-      <c r="H67" s="77"/>
-      <c r="I67" s="96" t="s">
+      <c r="H67" s="39"/>
+      <c r="I67" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J67" s="1" t="s">
@@ -4961,23 +4962,23 @@
       </c>
     </row>
     <row r="68" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="64">
+      <c r="A68" s="71">
         <v>41</v>
       </c>
-      <c r="B68" s="70"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="49" t="s">
+      <c r="B68" s="99"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="E68" s="77"/>
-      <c r="F68" s="86" t="s">
+      <c r="E68" s="39"/>
+      <c r="F68" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G68" s="16">
         <v>413</v>
       </c>
-      <c r="H68" s="77"/>
-      <c r="I68" s="92"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="54"/>
       <c r="J68" s="1" t="s">
         <v>78</v>
       </c>
@@ -5013,19 +5014,19 @@
       </c>
     </row>
     <row r="69" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="65"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="86" t="s">
+      <c r="A69" s="72"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G69" s="16">
         <v>445</v>
       </c>
-      <c r="H69" s="77"/>
-      <c r="I69" s="96" t="s">
+      <c r="H69" s="39"/>
+      <c r="I69" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J69" s="1" t="s">
@@ -5063,23 +5064,23 @@
       </c>
     </row>
     <row r="70" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A70" s="64">
+      <c r="A70" s="71">
         <v>42</v>
       </c>
-      <c r="B70" s="70"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="49" t="s">
+      <c r="B70" s="99"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="E70" s="77"/>
-      <c r="F70" s="86" t="s">
+      <c r="E70" s="39"/>
+      <c r="F70" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G70" s="16">
         <v>413</v>
       </c>
-      <c r="H70" s="77"/>
-      <c r="I70" s="92"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="54"/>
       <c r="J70" s="1" t="s">
         <v>78</v>
       </c>
@@ -5115,19 +5116,19 @@
       </c>
     </row>
     <row r="71" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="65"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="86" t="s">
+      <c r="A71" s="72"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G71" s="16">
         <v>445</v>
       </c>
-      <c r="H71" s="77"/>
-      <c r="I71" s="96" t="s">
+      <c r="H71" s="39"/>
+      <c r="I71" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J71" s="1" t="s">
@@ -5165,23 +5166,23 @@
       </c>
     </row>
     <row r="72" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="64">
+      <c r="A72" s="71">
         <v>43</v>
       </c>
-      <c r="B72" s="70"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="49" t="s">
+      <c r="B72" s="99"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="E72" s="77"/>
-      <c r="F72" s="86" t="s">
+      <c r="E72" s="39"/>
+      <c r="F72" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G72" s="16">
         <v>413</v>
       </c>
-      <c r="H72" s="77"/>
-      <c r="I72" s="92"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="54"/>
       <c r="J72" s="1" t="s">
         <v>78</v>
       </c>
@@ -5217,19 +5218,19 @@
       </c>
     </row>
     <row r="73" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="65"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="86" t="s">
+      <c r="A73" s="72"/>
+      <c r="B73" s="99"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G73" s="16">
         <v>445</v>
       </c>
-      <c r="H73" s="77"/>
-      <c r="I73" s="96" t="s">
+      <c r="H73" s="39"/>
+      <c r="I73" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J73" s="1" t="s">
@@ -5267,23 +5268,23 @@
       </c>
     </row>
     <row r="74" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="64">
+      <c r="A74" s="71">
         <v>44</v>
       </c>
-      <c r="B74" s="70"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="49" t="s">
+      <c r="B74" s="99"/>
+      <c r="C74" s="82"/>
+      <c r="D74" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="E74" s="77"/>
-      <c r="F74" s="86" t="s">
+      <c r="E74" s="39"/>
+      <c r="F74" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G74" s="16">
         <v>413</v>
       </c>
-      <c r="H74" s="77"/>
-      <c r="I74" s="92"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="54"/>
       <c r="J74" s="1" t="s">
         <v>78</v>
       </c>
@@ -5319,19 +5320,19 @@
       </c>
     </row>
     <row r="75" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="65"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="86" t="s">
+      <c r="A75" s="72"/>
+      <c r="B75" s="99"/>
+      <c r="C75" s="82"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G75" s="16">
         <v>445</v>
       </c>
-      <c r="H75" s="77"/>
-      <c r="I75" s="96" t="s">
+      <c r="H75" s="39"/>
+      <c r="I75" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J75" s="1" t="s">
@@ -5369,23 +5370,23 @@
       </c>
     </row>
     <row r="76" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="64">
+      <c r="A76" s="71">
         <v>45</v>
       </c>
-      <c r="B76" s="70"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="49" t="s">
+      <c r="B76" s="99"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="E76" s="77"/>
-      <c r="F76" s="86" t="s">
+      <c r="E76" s="39"/>
+      <c r="F76" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G76" s="16">
         <v>413</v>
       </c>
-      <c r="H76" s="77"/>
-      <c r="I76" s="92"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="54"/>
       <c r="J76" s="1" t="s">
         <v>78</v>
       </c>
@@ -5421,19 +5422,19 @@
       </c>
     </row>
     <row r="77" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="65"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="86" t="s">
+      <c r="A77" s="72"/>
+      <c r="B77" s="99"/>
+      <c r="C77" s="82"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G77" s="16">
         <v>445</v>
       </c>
-      <c r="H77" s="77"/>
-      <c r="I77" s="96" t="s">
+      <c r="H77" s="39"/>
+      <c r="I77" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J77" s="1" t="s">
@@ -5471,23 +5472,23 @@
       </c>
     </row>
     <row r="78" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="64">
+      <c r="A78" s="71">
         <v>46</v>
       </c>
-      <c r="B78" s="70"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="49" t="s">
+      <c r="B78" s="99"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="E78" s="77"/>
-      <c r="F78" s="86" t="s">
+      <c r="E78" s="39"/>
+      <c r="F78" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G78" s="16">
         <v>413</v>
       </c>
-      <c r="H78" s="77"/>
-      <c r="I78" s="92"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="54"/>
       <c r="J78" s="1" t="s">
         <v>78</v>
       </c>
@@ -5523,19 +5524,19 @@
       </c>
     </row>
     <row r="79" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="65"/>
-      <c r="B79" s="70"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="50"/>
-      <c r="E79" s="79"/>
-      <c r="F79" s="87" t="s">
+      <c r="A79" s="72"/>
+      <c r="B79" s="99"/>
+      <c r="C79" s="83"/>
+      <c r="D79" s="70"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="G79" s="88">
+      <c r="G79" s="50">
         <v>445</v>
       </c>
-      <c r="H79" s="79"/>
-      <c r="I79" s="97" t="s">
+      <c r="H79" s="41"/>
+      <c r="I79" s="59" t="s">
         <v>132</v>
       </c>
       <c r="J79" s="11" t="s">
@@ -5573,25 +5574,25 @@
       </c>
     </row>
     <row r="80" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="60">
+      <c r="A80" s="35">
         <v>47</v>
       </c>
-      <c r="B80" s="70"/>
-      <c r="C80" s="25" t="s">
+      <c r="B80" s="99"/>
+      <c r="C80" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="D80" s="51" t="s">
+      <c r="D80" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E80" s="76"/>
+      <c r="E80" s="38"/>
       <c r="F80" s="15">
         <v>1</v>
       </c>
       <c r="G80" s="15">
         <v>425</v>
       </c>
-      <c r="H80" s="76"/>
-      <c r="I80" s="91"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="53"/>
       <c r="J80" s="3" t="s">
         <v>78</v>
       </c>
@@ -5627,23 +5628,23 @@
       </c>
     </row>
     <row r="81" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="60">
+      <c r="A81" s="35">
         <v>48</v>
       </c>
-      <c r="B81" s="70"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="33" t="s">
+      <c r="B81" s="99"/>
+      <c r="C81" s="82"/>
+      <c r="D81" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E81" s="77"/>
+      <c r="E81" s="39"/>
       <c r="F81" s="16">
         <v>1</v>
       </c>
       <c r="G81" s="16">
         <v>426</v>
       </c>
-      <c r="H81" s="77"/>
-      <c r="I81" s="92"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="54"/>
       <c r="J81" s="1" t="s">
         <v>78</v>
       </c>
@@ -5679,23 +5680,23 @@
       </c>
     </row>
     <row r="82" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="60">
+      <c r="A82" s="35">
         <v>49</v>
       </c>
-      <c r="B82" s="70"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="33" t="s">
+      <c r="B82" s="99"/>
+      <c r="C82" s="82"/>
+      <c r="D82" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E82" s="77"/>
+      <c r="E82" s="39"/>
       <c r="F82" s="16">
         <v>1</v>
       </c>
       <c r="G82" s="16">
         <v>426</v>
       </c>
-      <c r="H82" s="77"/>
-      <c r="I82" s="92"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="54"/>
       <c r="J82" s="1" t="s">
         <v>78</v>
       </c>
@@ -5731,23 +5732,23 @@
       </c>
     </row>
     <row r="83" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="60">
+      <c r="A83" s="35">
         <v>50</v>
       </c>
-      <c r="B83" s="70"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="33" t="s">
+      <c r="B83" s="99"/>
+      <c r="C83" s="82"/>
+      <c r="D83" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E83" s="77"/>
+      <c r="E83" s="39"/>
       <c r="F83" s="16">
         <v>1</v>
       </c>
       <c r="G83" s="16">
         <v>426</v>
       </c>
-      <c r="H83" s="77"/>
-      <c r="I83" s="92"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="54"/>
       <c r="J83" s="1" t="s">
         <v>78</v>
       </c>
@@ -5783,23 +5784,23 @@
       </c>
     </row>
     <row r="84" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="60">
+      <c r="A84" s="35">
         <v>51</v>
       </c>
-      <c r="B84" s="70"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="33" t="s">
+      <c r="B84" s="99"/>
+      <c r="C84" s="82"/>
+      <c r="D84" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E84" s="77"/>
+      <c r="E84" s="39"/>
       <c r="F84" s="16">
         <v>1</v>
       </c>
       <c r="G84" s="16">
         <v>426</v>
       </c>
-      <c r="H84" s="77"/>
-      <c r="I84" s="92"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="54"/>
       <c r="J84" s="1" t="s">
         <v>78</v>
       </c>
@@ -5835,23 +5836,23 @@
       </c>
     </row>
     <row r="85" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="60">
+      <c r="A85" s="35">
         <v>52</v>
       </c>
-      <c r="B85" s="70"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="33" t="s">
+      <c r="B85" s="99"/>
+      <c r="C85" s="82"/>
+      <c r="D85" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E85" s="77"/>
+      <c r="E85" s="39"/>
       <c r="F85" s="16">
         <v>1</v>
       </c>
       <c r="G85" s="16">
         <v>426</v>
       </c>
-      <c r="H85" s="77"/>
-      <c r="I85" s="92"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="54"/>
       <c r="J85" s="1" t="s">
         <v>78</v>
       </c>
@@ -5887,23 +5888,23 @@
       </c>
     </row>
     <row r="86" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="60">
+      <c r="A86" s="35">
         <v>53</v>
       </c>
-      <c r="B86" s="70"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="33" t="s">
+      <c r="B86" s="99"/>
+      <c r="C86" s="82"/>
+      <c r="D86" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E86" s="77"/>
+      <c r="E86" s="39"/>
       <c r="F86" s="16">
         <v>1</v>
       </c>
       <c r="G86" s="16">
         <v>426</v>
       </c>
-      <c r="H86" s="77"/>
-      <c r="I86" s="92"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="54"/>
       <c r="J86" s="1" t="s">
         <v>78</v>
       </c>
@@ -5939,23 +5940,23 @@
       </c>
     </row>
     <row r="87" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="66">
+      <c r="A87" s="37">
         <v>54</v>
       </c>
-      <c r="B87" s="72"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="52" t="s">
+      <c r="B87" s="101"/>
+      <c r="C87" s="83"/>
+      <c r="D87" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E87" s="79"/>
-      <c r="F87" s="88">
+      <c r="E87" s="41"/>
+      <c r="F87" s="50">
         <v>1</v>
       </c>
-      <c r="G87" s="88">
+      <c r="G87" s="50">
         <v>426</v>
       </c>
-      <c r="H87" s="79"/>
-      <c r="I87" s="98"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="60"/>
       <c r="J87" s="11" t="s">
         <v>78</v>
       </c>
@@ -5991,27 +5992,27 @@
       </c>
     </row>
     <row r="88" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="67">
+      <c r="A88" s="76">
         <v>55</v>
       </c>
-      <c r="B88" s="69" t="s">
+      <c r="B88" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C88" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="D88" s="53" t="s">
+      <c r="D88" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="E88" s="76"/>
-      <c r="F88" s="85" t="s">
+      <c r="E88" s="38"/>
+      <c r="F88" s="47" t="s">
         <v>100</v>
       </c>
       <c r="G88" s="15">
         <v>400</v>
       </c>
-      <c r="H88" s="76"/>
-      <c r="I88" s="99" t="s">
+      <c r="H88" s="38"/>
+      <c r="I88" s="61" t="s">
         <v>132</v>
       </c>
       <c r="J88" s="3" t="s">
@@ -6049,19 +6050,19 @@
       </c>
     </row>
     <row r="89" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A89" s="65"/>
-      <c r="B89" s="70"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="54"/>
-      <c r="E89" s="77"/>
-      <c r="F89" s="86" t="s">
+      <c r="A89" s="72"/>
+      <c r="B89" s="99"/>
+      <c r="C89" s="89"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G89" s="16">
         <v>435</v>
       </c>
-      <c r="H89" s="77"/>
-      <c r="I89" s="96" t="s">
+      <c r="H89" s="39"/>
+      <c r="I89" s="58" t="s">
         <v>77</v>
       </c>
       <c r="J89" s="1" t="s">
@@ -6099,23 +6100,23 @@
       </c>
     </row>
     <row r="90" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A90" s="64">
+      <c r="A90" s="71">
         <v>56</v>
       </c>
-      <c r="B90" s="70"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="49" t="s">
+      <c r="B90" s="99"/>
+      <c r="C90" s="89"/>
+      <c r="D90" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="E90" s="77"/>
-      <c r="F90" s="86" t="s">
+      <c r="E90" s="39"/>
+      <c r="F90" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G90" s="16">
         <v>401</v>
       </c>
-      <c r="H90" s="77"/>
-      <c r="I90" s="96" t="s">
+      <c r="H90" s="39"/>
+      <c r="I90" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J90" s="1" t="s">
@@ -6153,19 +6154,19 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="65"/>
-      <c r="B91" s="70"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="46"/>
-      <c r="E91" s="77"/>
-      <c r="F91" s="86" t="s">
+      <c r="A91" s="72"/>
+      <c r="B91" s="99"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G91" s="16">
         <v>436</v>
       </c>
-      <c r="H91" s="77"/>
-      <c r="I91" s="96" t="s">
+      <c r="H91" s="39"/>
+      <c r="I91" s="58" t="s">
         <v>77</v>
       </c>
       <c r="J91" s="1" t="s">
@@ -6203,23 +6204,23 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="64">
+      <c r="A92" s="71">
         <v>57</v>
       </c>
-      <c r="B92" s="70"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="49" t="s">
+      <c r="B92" s="99"/>
+      <c r="C92" s="89"/>
+      <c r="D92" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="E92" s="77"/>
-      <c r="F92" s="86" t="s">
+      <c r="E92" s="39"/>
+      <c r="F92" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G92" s="16">
         <v>401</v>
       </c>
-      <c r="H92" s="77"/>
-      <c r="I92" s="96" t="s">
+      <c r="H92" s="39"/>
+      <c r="I92" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J92" s="1" t="s">
@@ -6257,19 +6258,19 @@
       </c>
     </row>
     <row r="93" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A93" s="65"/>
-      <c r="B93" s="70"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="46"/>
-      <c r="E93" s="77"/>
-      <c r="F93" s="86" t="s">
+      <c r="A93" s="72"/>
+      <c r="B93" s="99"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G93" s="16">
         <v>436</v>
       </c>
-      <c r="H93" s="77"/>
-      <c r="I93" s="96" t="s">
+      <c r="H93" s="39"/>
+      <c r="I93" s="58" t="s">
         <v>77</v>
       </c>
       <c r="J93" s="1" t="s">
@@ -6307,23 +6308,23 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="64">
+      <c r="A94" s="71">
         <v>58</v>
       </c>
-      <c r="B94" s="70"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="49" t="s">
+      <c r="B94" s="99"/>
+      <c r="C94" s="89"/>
+      <c r="D94" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="E94" s="77"/>
-      <c r="F94" s="86" t="s">
+      <c r="E94" s="39"/>
+      <c r="F94" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G94" s="16">
         <v>401</v>
       </c>
-      <c r="H94" s="77"/>
-      <c r="I94" s="96" t="s">
+      <c r="H94" s="39"/>
+      <c r="I94" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J94" s="1" t="s">
@@ -6361,19 +6362,19 @@
       </c>
     </row>
     <row r="95" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="65"/>
-      <c r="B95" s="70"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="46"/>
-      <c r="E95" s="77"/>
-      <c r="F95" s="86" t="s">
+      <c r="A95" s="72"/>
+      <c r="B95" s="99"/>
+      <c r="C95" s="89"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G95" s="16">
         <v>436</v>
       </c>
-      <c r="H95" s="77"/>
-      <c r="I95" s="96" t="s">
+      <c r="H95" s="39"/>
+      <c r="I95" s="58" t="s">
         <v>77</v>
       </c>
       <c r="J95" s="1" t="s">
@@ -6411,23 +6412,23 @@
       </c>
     </row>
     <row r="96" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A96" s="64">
+      <c r="A96" s="71">
         <v>59</v>
       </c>
-      <c r="B96" s="70"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="47" t="s">
+      <c r="B96" s="99"/>
+      <c r="C96" s="89"/>
+      <c r="D96" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="E96" s="77"/>
-      <c r="F96" s="86" t="s">
+      <c r="E96" s="39"/>
+      <c r="F96" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G96" s="16">
         <v>401</v>
       </c>
-      <c r="H96" s="77"/>
-      <c r="I96" s="96" t="s">
+      <c r="H96" s="39"/>
+      <c r="I96" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J96" s="1" t="s">
@@ -6465,19 +6466,19 @@
       </c>
     </row>
     <row r="97" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="65"/>
-      <c r="B97" s="70"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="79"/>
-      <c r="F97" s="87" t="s">
+      <c r="A97" s="72"/>
+      <c r="B97" s="99"/>
+      <c r="C97" s="90"/>
+      <c r="D97" s="85"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="G97" s="88">
+      <c r="G97" s="50">
         <v>436</v>
       </c>
-      <c r="H97" s="79"/>
-      <c r="I97" s="97" t="s">
+      <c r="H97" s="41"/>
+      <c r="I97" s="59" t="s">
         <v>77</v>
       </c>
       <c r="J97" s="11" t="s">
@@ -6515,25 +6516,25 @@
       </c>
     </row>
     <row r="98" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A98" s="64">
+      <c r="A98" s="71">
         <v>60</v>
       </c>
-      <c r="B98" s="70"/>
-      <c r="C98" s="25" t="s">
+      <c r="B98" s="99"/>
+      <c r="C98" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="D98" s="45" t="s">
+      <c r="D98" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="E98" s="76"/>
-      <c r="F98" s="85" t="s">
+      <c r="E98" s="38"/>
+      <c r="F98" s="47" t="s">
         <v>100</v>
       </c>
       <c r="G98" s="15">
         <v>414</v>
       </c>
-      <c r="H98" s="76"/>
-      <c r="I98" s="91"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="53"/>
       <c r="J98" s="3" t="s">
         <v>78</v>
       </c>
@@ -6569,19 +6570,19 @@
       </c>
     </row>
     <row r="99" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A99" s="65"/>
-      <c r="B99" s="70"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="46"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="86" t="s">
+      <c r="A99" s="72"/>
+      <c r="B99" s="99"/>
+      <c r="C99" s="82"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G99" s="16">
         <v>446</v>
       </c>
-      <c r="H99" s="77"/>
-      <c r="I99" s="96" t="s">
+      <c r="H99" s="39"/>
+      <c r="I99" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J99" s="1" t="s">
@@ -6619,23 +6620,23 @@
       </c>
     </row>
     <row r="100" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A100" s="64">
+      <c r="A100" s="71">
         <v>61</v>
       </c>
-      <c r="B100" s="70"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="49" t="s">
+      <c r="B100" s="99"/>
+      <c r="C100" s="82"/>
+      <c r="D100" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="E100" s="77"/>
-      <c r="F100" s="86" t="s">
+      <c r="E100" s="39"/>
+      <c r="F100" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G100" s="16">
         <v>415</v>
       </c>
-      <c r="H100" s="77"/>
-      <c r="I100" s="92"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="54"/>
       <c r="J100" s="1" t="s">
         <v>78</v>
       </c>
@@ -6671,19 +6672,19 @@
       </c>
     </row>
     <row r="101" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A101" s="65"/>
-      <c r="B101" s="70"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="46"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="86" t="s">
+      <c r="A101" s="72"/>
+      <c r="B101" s="99"/>
+      <c r="C101" s="82"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G101" s="16">
         <v>447</v>
       </c>
-      <c r="H101" s="77"/>
-      <c r="I101" s="96" t="s">
+      <c r="H101" s="39"/>
+      <c r="I101" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J101" s="1" t="s">
@@ -6721,23 +6722,23 @@
       </c>
     </row>
     <row r="102" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A102" s="64">
+      <c r="A102" s="71">
         <v>62</v>
       </c>
-      <c r="B102" s="70"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="49" t="s">
+      <c r="B102" s="99"/>
+      <c r="C102" s="82"/>
+      <c r="D102" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="E102" s="77"/>
-      <c r="F102" s="86" t="s">
+      <c r="E102" s="39"/>
+      <c r="F102" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G102" s="16">
         <v>415</v>
       </c>
-      <c r="H102" s="77"/>
-      <c r="I102" s="92"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="54"/>
       <c r="J102" s="1" t="s">
         <v>78</v>
       </c>
@@ -6773,19 +6774,19 @@
       </c>
     </row>
     <row r="103" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A103" s="65"/>
-      <c r="B103" s="70"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="46"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="86" t="s">
+      <c r="A103" s="72"/>
+      <c r="B103" s="99"/>
+      <c r="C103" s="82"/>
+      <c r="D103" s="68"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G103" s="16">
         <v>447</v>
       </c>
-      <c r="H103" s="77"/>
-      <c r="I103" s="96" t="s">
+      <c r="H103" s="39"/>
+      <c r="I103" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J103" s="1" t="s">
@@ -6823,23 +6824,23 @@
       </c>
     </row>
     <row r="104" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A104" s="64">
+      <c r="A104" s="71">
         <v>63</v>
       </c>
-      <c r="B104" s="70"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="49" t="s">
+      <c r="B104" s="99"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="E104" s="77"/>
-      <c r="F104" s="86" t="s">
+      <c r="E104" s="39"/>
+      <c r="F104" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G104" s="16">
         <v>415</v>
       </c>
-      <c r="H104" s="77"/>
-      <c r="I104" s="92"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="54"/>
       <c r="J104" s="1" t="s">
         <v>78</v>
       </c>
@@ -6875,19 +6876,19 @@
       </c>
     </row>
     <row r="105" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A105" s="65"/>
-      <c r="B105" s="70"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="46"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="86" t="s">
+      <c r="A105" s="72"/>
+      <c r="B105" s="99"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G105" s="16">
         <v>447</v>
       </c>
-      <c r="H105" s="77"/>
-      <c r="I105" s="96" t="s">
+      <c r="H105" s="39"/>
+      <c r="I105" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J105" s="1" t="s">
@@ -6925,23 +6926,23 @@
       </c>
     </row>
     <row r="106" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A106" s="64">
+      <c r="A106" s="71">
         <v>64</v>
       </c>
-      <c r="B106" s="70"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="49" t="s">
+      <c r="B106" s="99"/>
+      <c r="C106" s="82"/>
+      <c r="D106" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="E106" s="77"/>
-      <c r="F106" s="86" t="s">
+      <c r="E106" s="39"/>
+      <c r="F106" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G106" s="16">
         <v>415</v>
       </c>
-      <c r="H106" s="77"/>
-      <c r="I106" s="92"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="54"/>
       <c r="J106" s="1" t="s">
         <v>78</v>
       </c>
@@ -6977,19 +6978,19 @@
       </c>
     </row>
     <row r="107" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="65"/>
-      <c r="B107" s="70"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="50"/>
-      <c r="E107" s="79"/>
-      <c r="F107" s="87" t="s">
+      <c r="A107" s="72"/>
+      <c r="B107" s="99"/>
+      <c r="C107" s="83"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="G107" s="88">
+      <c r="G107" s="50">
         <v>447</v>
       </c>
-      <c r="H107" s="79"/>
-      <c r="I107" s="97" t="s">
+      <c r="H107" s="41"/>
+      <c r="I107" s="59" t="s">
         <v>132</v>
       </c>
       <c r="J107" s="11" t="s">
@@ -7027,25 +7028,25 @@
       </c>
     </row>
     <row r="108" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A108" s="60">
+      <c r="A108" s="35">
         <v>65</v>
       </c>
-      <c r="B108" s="70"/>
-      <c r="C108" s="25" t="s">
+      <c r="B108" s="99"/>
+      <c r="C108" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="D108" s="51" t="s">
+      <c r="D108" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="E108" s="80"/>
+      <c r="E108" s="42"/>
       <c r="F108" s="15">
         <v>1</v>
       </c>
       <c r="G108" s="15">
         <v>427</v>
       </c>
-      <c r="H108" s="76"/>
-      <c r="I108" s="91"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="53"/>
       <c r="J108" s="3" t="s">
         <v>78</v>
       </c>
@@ -7081,23 +7082,23 @@
       </c>
     </row>
     <row r="109" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A109" s="60">
+      <c r="A109" s="35">
         <v>66</v>
       </c>
-      <c r="B109" s="70"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="33" t="s">
+      <c r="B109" s="99"/>
+      <c r="C109" s="82"/>
+      <c r="D109" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="E109" s="81"/>
+      <c r="E109" s="43"/>
       <c r="F109" s="16">
         <v>1</v>
       </c>
       <c r="G109" s="16">
         <v>428</v>
       </c>
-      <c r="H109" s="77"/>
-      <c r="I109" s="92"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="54"/>
       <c r="J109" s="1" t="s">
         <v>78</v>
       </c>
@@ -7133,23 +7134,23 @@
       </c>
     </row>
     <row r="110" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A110" s="60">
+      <c r="A110" s="35">
         <v>67</v>
       </c>
-      <c r="B110" s="70"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="33" t="s">
+      <c r="B110" s="99"/>
+      <c r="C110" s="82"/>
+      <c r="D110" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E110" s="81"/>
+      <c r="E110" s="43"/>
       <c r="F110" s="16">
         <v>1</v>
       </c>
       <c r="G110" s="16">
         <v>428</v>
       </c>
-      <c r="H110" s="77"/>
-      <c r="I110" s="92"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="54"/>
       <c r="J110" s="1" t="s">
         <v>78</v>
       </c>
@@ -7185,23 +7186,23 @@
       </c>
     </row>
     <row r="111" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A111" s="60">
+      <c r="A111" s="35">
         <v>68</v>
       </c>
-      <c r="B111" s="70"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="33" t="s">
+      <c r="B111" s="99"/>
+      <c r="C111" s="82"/>
+      <c r="D111" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E111" s="81"/>
+      <c r="E111" s="43"/>
       <c r="F111" s="16">
         <v>1</v>
       </c>
       <c r="G111" s="16">
         <v>428</v>
       </c>
-      <c r="H111" s="77"/>
-      <c r="I111" s="92"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="54"/>
       <c r="J111" s="1" t="s">
         <v>78</v>
       </c>
@@ -7237,23 +7238,23 @@
       </c>
     </row>
     <row r="112" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="61">
+      <c r="A112" s="36">
         <v>69</v>
       </c>
-      <c r="B112" s="71"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="52" t="s">
+      <c r="B112" s="100"/>
+      <c r="C112" s="83"/>
+      <c r="D112" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="E112" s="82"/>
-      <c r="F112" s="88">
+      <c r="E112" s="44"/>
+      <c r="F112" s="50">
         <v>1</v>
       </c>
-      <c r="G112" s="88">
+      <c r="G112" s="50">
         <v>428</v>
       </c>
-      <c r="H112" s="79"/>
-      <c r="I112" s="98"/>
+      <c r="H112" s="41"/>
+      <c r="I112" s="60"/>
       <c r="J112" s="11" t="s">
         <v>78</v>
       </c>
@@ -7289,27 +7290,27 @@
       </c>
     </row>
     <row r="113" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="67">
+      <c r="A113" s="76">
         <v>70</v>
       </c>
-      <c r="B113" s="69" t="s">
+      <c r="B113" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="29" t="s">
+      <c r="C113" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="D113" s="45" t="s">
+      <c r="D113" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="E113" s="76"/>
-      <c r="F113" s="85" t="s">
+      <c r="E113" s="38"/>
+      <c r="F113" s="47" t="s">
         <v>100</v>
       </c>
       <c r="G113" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="H113" s="76"/>
-      <c r="I113" s="99" t="s">
+      <c r="H113" s="38"/>
+      <c r="I113" s="61" t="s">
         <v>132</v>
       </c>
       <c r="J113" s="3" t="s">
@@ -7347,19 +7348,19 @@
       </c>
     </row>
     <row r="114" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A114" s="65"/>
-      <c r="B114" s="70"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="46"/>
-      <c r="E114" s="77"/>
-      <c r="F114" s="86" t="s">
+      <c r="A114" s="72"/>
+      <c r="B114" s="99"/>
+      <c r="C114" s="89"/>
+      <c r="D114" s="68"/>
+      <c r="E114" s="39"/>
+      <c r="F114" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G114" s="16">
         <v>437</v>
       </c>
-      <c r="H114" s="77"/>
-      <c r="I114" s="96" t="s">
+      <c r="H114" s="39"/>
+      <c r="I114" s="58" t="s">
         <v>77</v>
       </c>
       <c r="J114" s="1" t="s">
@@ -7397,23 +7398,23 @@
       </c>
     </row>
     <row r="115" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A115" s="64">
+      <c r="A115" s="71">
         <v>71</v>
       </c>
-      <c r="B115" s="70"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="49" t="s">
+      <c r="B115" s="99"/>
+      <c r="C115" s="89"/>
+      <c r="D115" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="E115" s="77"/>
-      <c r="F115" s="86" t="s">
+      <c r="E115" s="39"/>
+      <c r="F115" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G115" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="H115" s="77"/>
-      <c r="I115" s="96" t="s">
+      <c r="H115" s="39"/>
+      <c r="I115" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J115" s="1" t="s">
@@ -7451,19 +7452,19 @@
       </c>
     </row>
     <row r="116" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A116" s="65"/>
-      <c r="B116" s="70"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="46"/>
-      <c r="E116" s="77"/>
-      <c r="F116" s="86" t="s">
+      <c r="A116" s="72"/>
+      <c r="B116" s="99"/>
+      <c r="C116" s="89"/>
+      <c r="D116" s="68"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G116" s="16">
         <v>437</v>
       </c>
-      <c r="H116" s="77"/>
-      <c r="I116" s="96" t="s">
+      <c r="H116" s="39"/>
+      <c r="I116" s="58" t="s">
         <v>77</v>
       </c>
       <c r="J116" s="1" t="s">
@@ -7501,23 +7502,23 @@
       </c>
     </row>
     <row r="117" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A117" s="64">
+      <c r="A117" s="71">
         <v>72</v>
       </c>
-      <c r="B117" s="70"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="49" t="s">
+      <c r="B117" s="99"/>
+      <c r="C117" s="89"/>
+      <c r="D117" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="E117" s="77"/>
-      <c r="F117" s="86" t="s">
+      <c r="E117" s="39"/>
+      <c r="F117" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G117" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="H117" s="77"/>
-      <c r="I117" s="96" t="s">
+      <c r="H117" s="39"/>
+      <c r="I117" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J117" s="1" t="s">
@@ -7555,19 +7556,19 @@
       </c>
     </row>
     <row r="118" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A118" s="65"/>
-      <c r="B118" s="70"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="46"/>
-      <c r="E118" s="77"/>
-      <c r="F118" s="86" t="s">
+      <c r="A118" s="72"/>
+      <c r="B118" s="99"/>
+      <c r="C118" s="89"/>
+      <c r="D118" s="68"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G118" s="16">
         <v>437</v>
       </c>
-      <c r="H118" s="77"/>
-      <c r="I118" s="96" t="s">
+      <c r="H118" s="39"/>
+      <c r="I118" s="58" t="s">
         <v>77</v>
       </c>
       <c r="J118" s="1" t="s">
@@ -7605,23 +7606,23 @@
       </c>
     </row>
     <row r="119" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A119" s="64">
+      <c r="A119" s="71">
         <v>73</v>
       </c>
-      <c r="B119" s="70"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="49" t="s">
+      <c r="B119" s="99"/>
+      <c r="C119" s="89"/>
+      <c r="D119" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E119" s="77"/>
-      <c r="F119" s="86" t="s">
+      <c r="E119" s="39"/>
+      <c r="F119" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G119" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="H119" s="77"/>
-      <c r="I119" s="96" t="s">
+      <c r="H119" s="39"/>
+      <c r="I119" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J119" s="1" t="s">
@@ -7659,19 +7660,19 @@
       </c>
     </row>
     <row r="120" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="65"/>
-      <c r="B120" s="70"/>
-      <c r="C120" s="31"/>
-      <c r="D120" s="50"/>
-      <c r="E120" s="79"/>
-      <c r="F120" s="87" t="s">
+      <c r="A120" s="72"/>
+      <c r="B120" s="99"/>
+      <c r="C120" s="90"/>
+      <c r="D120" s="70"/>
+      <c r="E120" s="41"/>
+      <c r="F120" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="G120" s="88">
+      <c r="G120" s="50">
         <v>437</v>
       </c>
-      <c r="H120" s="79"/>
-      <c r="I120" s="97" t="s">
+      <c r="H120" s="41"/>
+      <c r="I120" s="59" t="s">
         <v>77</v>
       </c>
       <c r="J120" s="11" t="s">
@@ -7709,25 +7710,25 @@
       </c>
     </row>
     <row r="121" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A121" s="64">
+      <c r="A121" s="71">
         <v>74</v>
       </c>
-      <c r="B121" s="70"/>
-      <c r="C121" s="25" t="s">
+      <c r="B121" s="99"/>
+      <c r="C121" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="45" t="s">
+      <c r="D121" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="E121" s="76"/>
-      <c r="F121" s="85" t="s">
+      <c r="E121" s="38"/>
+      <c r="F121" s="47" t="s">
         <v>100</v>
       </c>
       <c r="G121" s="15">
         <v>416</v>
       </c>
-      <c r="H121" s="76"/>
-      <c r="I121" s="91"/>
+      <c r="H121" s="38"/>
+      <c r="I121" s="53"/>
       <c r="J121" s="3" t="s">
         <v>78</v>
       </c>
@@ -7763,19 +7764,19 @@
       </c>
     </row>
     <row r="122" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A122" s="65"/>
-      <c r="B122" s="70"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="46"/>
-      <c r="E122" s="77"/>
-      <c r="F122" s="86" t="s">
+      <c r="A122" s="72"/>
+      <c r="B122" s="99"/>
+      <c r="C122" s="82"/>
+      <c r="D122" s="68"/>
+      <c r="E122" s="39"/>
+      <c r="F122" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G122" s="16">
         <v>448</v>
       </c>
-      <c r="H122" s="77"/>
-      <c r="I122" s="96" t="s">
+      <c r="H122" s="39"/>
+      <c r="I122" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J122" s="1" t="s">
@@ -7813,23 +7814,23 @@
       </c>
     </row>
     <row r="123" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A123" s="64">
+      <c r="A123" s="71">
         <v>75</v>
       </c>
-      <c r="B123" s="70"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="49" t="s">
+      <c r="B123" s="99"/>
+      <c r="C123" s="82"/>
+      <c r="D123" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="E123" s="77"/>
-      <c r="F123" s="86" t="s">
+      <c r="E123" s="39"/>
+      <c r="F123" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G123" s="16">
         <v>416</v>
       </c>
-      <c r="H123" s="77"/>
-      <c r="I123" s="92"/>
+      <c r="H123" s="39"/>
+      <c r="I123" s="54"/>
       <c r="J123" s="1" t="s">
         <v>78</v>
       </c>
@@ -7865,19 +7866,19 @@
       </c>
     </row>
     <row r="124" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A124" s="65"/>
-      <c r="B124" s="70"/>
-      <c r="C124" s="26"/>
-      <c r="D124" s="46"/>
-      <c r="E124" s="77"/>
-      <c r="F124" s="86" t="s">
+      <c r="A124" s="72"/>
+      <c r="B124" s="99"/>
+      <c r="C124" s="82"/>
+      <c r="D124" s="68"/>
+      <c r="E124" s="39"/>
+      <c r="F124" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G124" s="16">
         <v>448</v>
       </c>
-      <c r="H124" s="77"/>
-      <c r="I124" s="96" t="s">
+      <c r="H124" s="39"/>
+      <c r="I124" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J124" s="1" t="s">
@@ -7915,23 +7916,23 @@
       </c>
     </row>
     <row r="125" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A125" s="64">
+      <c r="A125" s="71">
         <v>76</v>
       </c>
-      <c r="B125" s="70"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="49" t="s">
+      <c r="B125" s="99"/>
+      <c r="C125" s="82"/>
+      <c r="D125" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="E125" s="77"/>
-      <c r="F125" s="86" t="s">
+      <c r="E125" s="39"/>
+      <c r="F125" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G125" s="16">
         <v>416</v>
       </c>
-      <c r="H125" s="77"/>
-      <c r="I125" s="92"/>
+      <c r="H125" s="39"/>
+      <c r="I125" s="54"/>
       <c r="J125" s="1" t="s">
         <v>78</v>
       </c>
@@ -7967,19 +7968,19 @@
       </c>
     </row>
     <row r="126" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A126" s="65"/>
-      <c r="B126" s="70"/>
-      <c r="C126" s="26"/>
-      <c r="D126" s="46"/>
-      <c r="E126" s="77"/>
-      <c r="F126" s="86" t="s">
+      <c r="A126" s="72"/>
+      <c r="B126" s="99"/>
+      <c r="C126" s="82"/>
+      <c r="D126" s="68"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G126" s="16">
         <v>448</v>
       </c>
-      <c r="H126" s="77"/>
-      <c r="I126" s="96" t="s">
+      <c r="H126" s="39"/>
+      <c r="I126" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J126" s="1" t="s">
@@ -8017,23 +8018,23 @@
       </c>
     </row>
     <row r="127" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A127" s="64">
+      <c r="A127" s="71">
         <v>77</v>
       </c>
-      <c r="B127" s="70"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="49" t="s">
+      <c r="B127" s="99"/>
+      <c r="C127" s="82"/>
+      <c r="D127" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="E127" s="77"/>
-      <c r="F127" s="86" t="s">
+      <c r="E127" s="39"/>
+      <c r="F127" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G127" s="16">
         <v>416</v>
       </c>
-      <c r="H127" s="77"/>
-      <c r="I127" s="92"/>
+      <c r="H127" s="39"/>
+      <c r="I127" s="54"/>
       <c r="J127" s="1" t="s">
         <v>78</v>
       </c>
@@ -8069,19 +8070,19 @@
       </c>
     </row>
     <row r="128" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="65"/>
-      <c r="B128" s="70"/>
-      <c r="C128" s="27"/>
-      <c r="D128" s="50"/>
-      <c r="E128" s="79"/>
-      <c r="F128" s="87" t="s">
+      <c r="A128" s="72"/>
+      <c r="B128" s="99"/>
+      <c r="C128" s="83"/>
+      <c r="D128" s="70"/>
+      <c r="E128" s="41"/>
+      <c r="F128" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="G128" s="88">
+      <c r="G128" s="50">
         <v>448</v>
       </c>
-      <c r="H128" s="79"/>
-      <c r="I128" s="97" t="s">
+      <c r="H128" s="41"/>
+      <c r="I128" s="59" t="s">
         <v>132</v>
       </c>
       <c r="J128" s="11" t="s">
@@ -8119,25 +8120,25 @@
       </c>
     </row>
     <row r="129" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A129" s="61">
-        <v>78</v>
-      </c>
-      <c r="B129" s="70"/>
-      <c r="C129" s="25" t="s">
+      <c r="A129" s="36">
+        <v>78</v>
+      </c>
+      <c r="B129" s="99"/>
+      <c r="C129" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="D129" s="56" t="s">
+      <c r="D129" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E129" s="76"/>
+      <c r="E129" s="38"/>
       <c r="F129" s="15">
         <v>1</v>
       </c>
       <c r="G129" s="15">
         <v>429</v>
       </c>
-      <c r="H129" s="76"/>
-      <c r="I129" s="91"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="53"/>
       <c r="J129" s="3" t="s">
         <v>78</v>
       </c>
@@ -8173,23 +8174,23 @@
       </c>
     </row>
     <row r="130" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A130" s="61">
-        <v>79</v>
-      </c>
-      <c r="B130" s="70"/>
-      <c r="C130" s="26"/>
-      <c r="D130" s="57" t="s">
+      <c r="A130" s="36">
+        <v>79</v>
+      </c>
+      <c r="B130" s="99"/>
+      <c r="C130" s="82"/>
+      <c r="D130" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E130" s="77"/>
+      <c r="E130" s="39"/>
       <c r="F130" s="16">
         <v>1</v>
       </c>
       <c r="G130" s="16">
         <v>429</v>
       </c>
-      <c r="H130" s="77"/>
-      <c r="I130" s="92"/>
+      <c r="H130" s="39"/>
+      <c r="I130" s="54"/>
       <c r="J130" s="1" t="s">
         <v>78</v>
       </c>
@@ -8225,23 +8226,23 @@
       </c>
     </row>
     <row r="131" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A131" s="61">
-        <v>80</v>
-      </c>
-      <c r="B131" s="70"/>
-      <c r="C131" s="26"/>
-      <c r="D131" s="57" t="s">
+      <c r="A131" s="36">
+        <v>80</v>
+      </c>
+      <c r="B131" s="99"/>
+      <c r="C131" s="82"/>
+      <c r="D131" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E131" s="77"/>
+      <c r="E131" s="39"/>
       <c r="F131" s="16">
         <v>1</v>
       </c>
       <c r="G131" s="16">
         <v>429</v>
       </c>
-      <c r="H131" s="77"/>
-      <c r="I131" s="92"/>
+      <c r="H131" s="39"/>
+      <c r="I131" s="54"/>
       <c r="J131" s="1" t="s">
         <v>78</v>
       </c>
@@ -8277,23 +8278,23 @@
       </c>
     </row>
     <row r="132" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="66">
-        <v>81</v>
-      </c>
-      <c r="B132" s="72"/>
-      <c r="C132" s="27"/>
-      <c r="D132" s="58" t="s">
+      <c r="A132" s="37">
+        <v>81</v>
+      </c>
+      <c r="B132" s="101"/>
+      <c r="C132" s="83"/>
+      <c r="D132" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="E132" s="79"/>
-      <c r="F132" s="88">
+      <c r="E132" s="41"/>
+      <c r="F132" s="50">
         <v>1</v>
       </c>
-      <c r="G132" s="88">
+      <c r="G132" s="50">
         <v>429</v>
       </c>
-      <c r="H132" s="79"/>
-      <c r="I132" s="98"/>
+      <c r="H132" s="41"/>
+      <c r="I132" s="60"/>
       <c r="J132" s="11" t="s">
         <v>78</v>
       </c>
@@ -8329,27 +8330,27 @@
       </c>
     </row>
     <row r="133" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="67">
-        <v>82</v>
-      </c>
-      <c r="B133" s="73" t="s">
+      <c r="A133" s="76">
+        <v>82</v>
+      </c>
+      <c r="B133" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="C133" s="25" t="s">
+      <c r="C133" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="D133" s="45" t="s">
+      <c r="D133" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="E133" s="76"/>
-      <c r="F133" s="85" t="s">
+      <c r="E133" s="38"/>
+      <c r="F133" s="47" t="s">
         <v>100</v>
       </c>
       <c r="G133" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="H133" s="76"/>
-      <c r="I133" s="99" t="s">
+      <c r="H133" s="38"/>
+      <c r="I133" s="61" t="s">
         <v>132</v>
       </c>
       <c r="J133" s="3" t="s">
@@ -8382,24 +8383,24 @@
       <c r="S133" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="T133" s="24" t="s">
+      <c r="T133" s="21" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="134" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A134" s="65"/>
-      <c r="B134" s="74"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="46"/>
-      <c r="E134" s="77"/>
-      <c r="F134" s="86" t="s">
+      <c r="A134" s="72"/>
+      <c r="B134" s="105"/>
+      <c r="C134" s="82"/>
+      <c r="D134" s="68"/>
+      <c r="E134" s="39"/>
+      <c r="F134" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G134" s="16">
         <v>438</v>
       </c>
-      <c r="H134" s="77"/>
-      <c r="I134" s="96" t="s">
+      <c r="H134" s="39"/>
+      <c r="I134" s="58" t="s">
         <v>77</v>
       </c>
       <c r="J134" s="1" t="s">
@@ -8437,23 +8438,23 @@
       </c>
     </row>
     <row r="135" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A135" s="64">
+      <c r="A135" s="71">
         <v>83</v>
       </c>
-      <c r="B135" s="74"/>
-      <c r="C135" s="26"/>
-      <c r="D135" s="44" t="s">
+      <c r="B135" s="105"/>
+      <c r="C135" s="82"/>
+      <c r="D135" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="E135" s="77"/>
-      <c r="F135" s="86" t="s">
+      <c r="E135" s="39"/>
+      <c r="F135" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G135" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="H135" s="77"/>
-      <c r="I135" s="96" t="s">
+      <c r="H135" s="39"/>
+      <c r="I135" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J135" s="1" t="s">
@@ -8491,19 +8492,19 @@
       </c>
     </row>
     <row r="136" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A136" s="65"/>
-      <c r="B136" s="74"/>
-      <c r="C136" s="26"/>
-      <c r="D136" s="54"/>
-      <c r="E136" s="77"/>
-      <c r="F136" s="86" t="s">
+      <c r="A136" s="72"/>
+      <c r="B136" s="105"/>
+      <c r="C136" s="82"/>
+      <c r="D136" s="75"/>
+      <c r="E136" s="39"/>
+      <c r="F136" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G136" s="16">
         <v>438</v>
       </c>
-      <c r="H136" s="77"/>
-      <c r="I136" s="96" t="s">
+      <c r="H136" s="39"/>
+      <c r="I136" s="58" t="s">
         <v>77</v>
       </c>
       <c r="J136" s="1" t="s">
@@ -8541,23 +8542,23 @@
       </c>
     </row>
     <row r="137" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A137" s="64">
+      <c r="A137" s="71">
         <v>84</v>
       </c>
-      <c r="B137" s="74"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="49" t="s">
+      <c r="B137" s="105"/>
+      <c r="C137" s="82"/>
+      <c r="D137" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="E137" s="77"/>
-      <c r="F137" s="86" t="s">
+      <c r="E137" s="39"/>
+      <c r="F137" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G137" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="H137" s="77"/>
-      <c r="I137" s="96" t="s">
+      <c r="H137" s="39"/>
+      <c r="I137" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J137" s="1" t="s">
@@ -8595,19 +8596,19 @@
       </c>
     </row>
     <row r="138" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A138" s="65"/>
-      <c r="B138" s="74"/>
-      <c r="C138" s="26"/>
-      <c r="D138" s="46"/>
-      <c r="E138" s="77"/>
-      <c r="F138" s="86" t="s">
+      <c r="A138" s="72"/>
+      <c r="B138" s="105"/>
+      <c r="C138" s="82"/>
+      <c r="D138" s="68"/>
+      <c r="E138" s="39"/>
+      <c r="F138" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G138" s="16">
         <v>438</v>
       </c>
-      <c r="H138" s="77"/>
-      <c r="I138" s="96" t="s">
+      <c r="H138" s="39"/>
+      <c r="I138" s="58" t="s">
         <v>77</v>
       </c>
       <c r="J138" s="1" t="s">
@@ -8645,23 +8646,23 @@
       </c>
     </row>
     <row r="139" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A139" s="64">
+      <c r="A139" s="71">
         <v>85</v>
       </c>
-      <c r="B139" s="74"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="49" t="s">
+      <c r="B139" s="105"/>
+      <c r="C139" s="82"/>
+      <c r="D139" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="E139" s="77"/>
-      <c r="F139" s="86" t="s">
+      <c r="E139" s="39"/>
+      <c r="F139" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G139" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="H139" s="77"/>
-      <c r="I139" s="96" t="s">
+      <c r="H139" s="39"/>
+      <c r="I139" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J139" s="1" t="s">
@@ -8699,19 +8700,19 @@
       </c>
     </row>
     <row r="140" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="65"/>
-      <c r="B140" s="74"/>
-      <c r="C140" s="27"/>
-      <c r="D140" s="50"/>
-      <c r="E140" s="79"/>
-      <c r="F140" s="87" t="s">
+      <c r="A140" s="72"/>
+      <c r="B140" s="105"/>
+      <c r="C140" s="83"/>
+      <c r="D140" s="70"/>
+      <c r="E140" s="41"/>
+      <c r="F140" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="G140" s="88">
+      <c r="G140" s="50">
         <v>438</v>
       </c>
-      <c r="H140" s="79"/>
-      <c r="I140" s="97" t="s">
+      <c r="H140" s="41"/>
+      <c r="I140" s="59" t="s">
         <v>77</v>
       </c>
       <c r="J140" s="11" t="s">
@@ -8749,25 +8750,25 @@
       </c>
     </row>
     <row r="141" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="64">
-        <v>86</v>
-      </c>
-      <c r="B141" s="74"/>
-      <c r="C141" s="25" t="s">
+      <c r="A141" s="71">
+        <v>86</v>
+      </c>
+      <c r="B141" s="105"/>
+      <c r="C141" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="D141" s="45" t="s">
+      <c r="D141" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="E141" s="76"/>
-      <c r="F141" s="85" t="s">
+      <c r="E141" s="38"/>
+      <c r="F141" s="47" t="s">
         <v>100</v>
       </c>
       <c r="G141" s="15">
         <v>417</v>
       </c>
-      <c r="H141" s="76"/>
-      <c r="I141" s="91"/>
+      <c r="H141" s="38"/>
+      <c r="I141" s="53"/>
       <c r="J141" s="3" t="s">
         <v>78</v>
       </c>
@@ -8798,24 +8799,24 @@
       <c r="S141" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="T141" s="24" t="s">
+      <c r="T141" s="21" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A142" s="65"/>
-      <c r="B142" s="74"/>
-      <c r="C142" s="26"/>
-      <c r="D142" s="46"/>
-      <c r="E142" s="77"/>
-      <c r="F142" s="86" t="s">
+      <c r="A142" s="72"/>
+      <c r="B142" s="105"/>
+      <c r="C142" s="82"/>
+      <c r="D142" s="68"/>
+      <c r="E142" s="39"/>
+      <c r="F142" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G142" s="16">
         <v>449</v>
       </c>
-      <c r="H142" s="77"/>
-      <c r="I142" s="96" t="s">
+      <c r="H142" s="39"/>
+      <c r="I142" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J142" s="1" t="s">
@@ -8853,23 +8854,23 @@
       </c>
     </row>
     <row r="143" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A143" s="64">
-        <v>87</v>
-      </c>
-      <c r="B143" s="74"/>
-      <c r="C143" s="26"/>
-      <c r="D143" s="49" t="s">
+      <c r="A143" s="71">
+        <v>87</v>
+      </c>
+      <c r="B143" s="105"/>
+      <c r="C143" s="82"/>
+      <c r="D143" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="E143" s="77"/>
-      <c r="F143" s="86" t="s">
+      <c r="E143" s="39"/>
+      <c r="F143" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G143" s="16">
         <v>417</v>
       </c>
-      <c r="H143" s="77"/>
-      <c r="I143" s="92"/>
+      <c r="H143" s="39"/>
+      <c r="I143" s="54"/>
       <c r="J143" s="1" t="s">
         <v>78</v>
       </c>
@@ -8905,19 +8906,19 @@
       </c>
     </row>
     <row r="144" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A144" s="65"/>
-      <c r="B144" s="74"/>
-      <c r="C144" s="26"/>
-      <c r="D144" s="46"/>
-      <c r="E144" s="77"/>
-      <c r="F144" s="86" t="s">
+      <c r="A144" s="72"/>
+      <c r="B144" s="105"/>
+      <c r="C144" s="82"/>
+      <c r="D144" s="68"/>
+      <c r="E144" s="39"/>
+      <c r="F144" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G144" s="16">
         <v>449</v>
       </c>
-      <c r="H144" s="77"/>
-      <c r="I144" s="96" t="s">
+      <c r="H144" s="39"/>
+      <c r="I144" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J144" s="1" t="s">
@@ -8955,23 +8956,23 @@
       </c>
     </row>
     <row r="145" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A145" s="64">
+      <c r="A145" s="71">
         <v>88</v>
       </c>
-      <c r="B145" s="74"/>
-      <c r="C145" s="26"/>
-      <c r="D145" s="49" t="s">
+      <c r="B145" s="105"/>
+      <c r="C145" s="82"/>
+      <c r="D145" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="E145" s="77"/>
-      <c r="F145" s="86" t="s">
+      <c r="E145" s="39"/>
+      <c r="F145" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G145" s="16">
         <v>417</v>
       </c>
-      <c r="H145" s="77"/>
-      <c r="I145" s="92"/>
+      <c r="H145" s="39"/>
+      <c r="I145" s="54"/>
       <c r="J145" s="1" t="s">
         <v>78</v>
       </c>
@@ -9007,19 +9008,19 @@
       </c>
     </row>
     <row r="146" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A146" s="65"/>
-      <c r="B146" s="74"/>
-      <c r="C146" s="26"/>
-      <c r="D146" s="46"/>
-      <c r="E146" s="77"/>
-      <c r="F146" s="86" t="s">
+      <c r="A146" s="72"/>
+      <c r="B146" s="105"/>
+      <c r="C146" s="82"/>
+      <c r="D146" s="68"/>
+      <c r="E146" s="39"/>
+      <c r="F146" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G146" s="16">
         <v>449</v>
       </c>
-      <c r="H146" s="77"/>
-      <c r="I146" s="96" t="s">
+      <c r="H146" s="39"/>
+      <c r="I146" s="58" t="s">
         <v>132</v>
       </c>
       <c r="J146" s="1" t="s">
@@ -9057,23 +9058,23 @@
       </c>
     </row>
     <row r="147" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A147" s="64">
+      <c r="A147" s="71">
         <v>89</v>
       </c>
-      <c r="B147" s="74"/>
-      <c r="C147" s="26"/>
-      <c r="D147" s="49" t="s">
+      <c r="B147" s="105"/>
+      <c r="C147" s="82"/>
+      <c r="D147" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="E147" s="77"/>
-      <c r="F147" s="86" t="s">
+      <c r="E147" s="39"/>
+      <c r="F147" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G147" s="16">
         <v>417</v>
       </c>
-      <c r="H147" s="77"/>
-      <c r="I147" s="92"/>
+      <c r="H147" s="39"/>
+      <c r="I147" s="54"/>
       <c r="J147" s="1" t="s">
         <v>78</v>
       </c>
@@ -9109,19 +9110,19 @@
       </c>
     </row>
     <row r="148" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="68"/>
-      <c r="B148" s="75"/>
-      <c r="C148" s="27"/>
-      <c r="D148" s="50"/>
-      <c r="E148" s="79"/>
-      <c r="F148" s="87" t="s">
+      <c r="A148" s="73"/>
+      <c r="B148" s="106"/>
+      <c r="C148" s="83"/>
+      <c r="D148" s="70"/>
+      <c r="E148" s="41"/>
+      <c r="F148" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="G148" s="88">
+      <c r="G148" s="50">
         <v>449</v>
       </c>
-      <c r="H148" s="79"/>
-      <c r="I148" s="98" t="s">
+      <c r="H148" s="41"/>
+      <c r="I148" s="60" t="s">
         <v>132</v>
       </c>
       <c r="J148" s="11" t="s">
@@ -9161,6 +9162,120 @@
   </sheetData>
   <autoFilter ref="A2:T148" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="138">
+    <mergeCell ref="C141:C148"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C48:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B133:B148"/>
+    <mergeCell ref="C133:C140"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="C113:C120"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B88:B112"/>
+    <mergeCell ref="B113:B132"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B15:B47"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C121:C128"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="I1:T1"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="C29:C44"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="C15:C28"/>
+    <mergeCell ref="C64:C79"/>
+    <mergeCell ref="B48:B87"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C80:C87"/>
+    <mergeCell ref="C98:C107"/>
+    <mergeCell ref="C108:C112"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="C88:C97"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A100:A101"/>
     <mergeCell ref="D141:D142"/>
     <mergeCell ref="D143:D144"/>
     <mergeCell ref="D145:D146"/>
@@ -9185,123 +9300,10 @@
     <mergeCell ref="D127:D128"/>
     <mergeCell ref="A127:A128"/>
     <mergeCell ref="D125:D126"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C80:C87"/>
-    <mergeCell ref="C98:C107"/>
-    <mergeCell ref="C108:C112"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="C88:C97"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C121:C128"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="I1:T1"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="C29:C44"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="B3:B14"/>
-    <mergeCell ref="C15:C28"/>
-    <mergeCell ref="C64:C79"/>
-    <mergeCell ref="B48:B87"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B88:B112"/>
-    <mergeCell ref="B113:B132"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B15:B47"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C141:C148"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="C48:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="B133:B148"/>
-    <mergeCell ref="C133:C140"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="C113:C120"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="258" scale="55" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="87" max="19" man="1"/>

--- a/Saturday_Abhidhamma_Lesson/ecps.xlsx
+++ b/Saturday_Abhidhamma_Lesson/ecps.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E123C7DF-5B11-4A60-95C1-AD37238855DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604A8E9A-5439-438C-B87A-4030224EC876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27105" yWindow="1890" windowWidth="22185" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18990" yWindow="3465" windowWidth="22185" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="154">
   <si>
     <t>සෝමනස්ස සහගත දිට්ඨිගත සම්පයුත්ත සසංඛාරික චිත්තය</t>
   </si>
@@ -276,9 +276,6 @@
     <t xml:space="preserve"> ඵස‍්සපච‍්චයා වෙදනා</t>
   </si>
   <si>
-    <t xml:space="preserve"> වෙදනාපච‍්චයා තණ‍්හා</t>
-  </si>
-  <si>
     <t xml:space="preserve"> තණ‍්හාපච‍්චයා උපාදානං</t>
   </si>
   <si>
@@ -297,9 +294,6 @@
     <t>වෙදනාපච්චයා තණ්හා</t>
   </si>
   <si>
-    <t>387/370</t>
-  </si>
-  <si>
     <t>389/391</t>
   </si>
   <si>
@@ -481,6 +475,18 @@
   </si>
   <si>
     <t>ලෝකෝත්තර විපාක සිත් 4</t>
+  </si>
+  <si>
+    <t>370/387</t>
+  </si>
+  <si>
+    <t>ඡට‍්ඨායතනපච‍්චයා ඵස‍්සො</t>
+  </si>
+  <si>
+    <t>වෙදනාපච‍්චයා තණ‍්හා</t>
+  </si>
+  <si>
+    <t>තණ්හාපච්චයා අධිමොක්ඛො</t>
   </si>
 </sst>
 </file>
@@ -1186,48 +1192,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1237,16 +1201,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1258,26 +1252,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1291,20 +1270,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1589,10 +1595,10 @@
   <dimension ref="A1:T148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,20 +1625,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I1" s="91" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="93"/>
+      <c r="I1" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="97"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="45" t="s">
@@ -1643,37 +1649,37 @@
       </c>
       <c r="H2" s="63"/>
       <c r="I2" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="S2" s="66" t="s">
         <v>129</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="S2" s="66" t="s">
-        <v>131</v>
       </c>
       <c r="T2" s="64"/>
     </row>
@@ -1681,10 +1687,10 @@
       <c r="A3" s="34">
         <v>1</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="67" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="22" t="s">
@@ -1711,36 +1717,36 @@
         <v>80</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>82</v>
       </c>
       <c r="O3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="R3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="35">
         <v>2</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="82"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="23" t="s">
         <v>0</v>
       </c>
@@ -1749,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="54" t="s">
@@ -1765,36 +1771,36 @@
         <v>80</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>82</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="R4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="82"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="24" t="s">
         <v>2</v>
       </c>
@@ -1819,36 +1825,36 @@
         <v>80</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>82</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="35">
         <v>4</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="82"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="24" t="s">
         <v>3</v>
       </c>
@@ -1873,36 +1879,36 @@
         <v>80</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>82</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="35">
         <v>5</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="82"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="24" t="s">
         <v>4</v>
       </c>
@@ -1927,36 +1933,36 @@
         <v>80</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>82</v>
       </c>
       <c r="O7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="R7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="35">
         <v>6</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="82"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="24" t="s">
         <v>5</v>
       </c>
@@ -1965,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="54" t="s">
@@ -1981,36 +1987,36 @@
         <v>80</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>82</v>
       </c>
       <c r="O8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="R8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="35">
         <v>7</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="82"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="24" t="s">
         <v>6</v>
       </c>
@@ -2035,36 +2041,36 @@
         <v>80</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>82</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="35">
         <v>8</v>
       </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="82"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="24" t="s">
         <v>7</v>
       </c>
@@ -2089,36 +2095,36 @@
         <v>80</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>82</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="35">
         <v>9</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="95" t="s">
+      <c r="B11" s="90"/>
+      <c r="C11" s="98" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="24" t="s">
@@ -2145,36 +2151,36 @@
         <v>80</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>82</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="35">
         <v>10</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="95"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="24" t="s">
         <v>9</v>
       </c>
@@ -2199,36 +2205,36 @@
         <v>80</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>82</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="35">
         <v>11</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="95" t="s">
+      <c r="B13" s="90"/>
+      <c r="C13" s="98" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="24" t="s">
@@ -2255,34 +2261,34 @@
         <v>80</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>82</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="96"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="25" t="s">
         <v>12</v>
       </c>
@@ -2307,46 +2313,46 @@
         <v>80</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>82</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="102">
+      <c r="A15" s="71">
         <v>13</v>
       </c>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="72" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G15" s="15">
         <v>418</v>
@@ -2363,7 +2369,7 @@
         <v>80</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>82</v>
@@ -2371,33 +2377,33 @@
       <c r="O15" s="9"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="94"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="86"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="39"/>
       <c r="F16" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G16" s="16">
         <v>450</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>78</v>
@@ -2409,7 +2415,7 @@
         <v>80</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>82</v>
@@ -2417,30 +2423,30 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="94">
+      <c r="A17" s="70">
         <v>14</v>
       </c>
-      <c r="B17" s="99"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="79" t="s">
+      <c r="B17" s="90"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="77" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G17" s="16">
         <v>419</v>
@@ -2457,7 +2463,7 @@
         <v>80</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>82</v>
@@ -2465,33 +2471,33 @@
       <c r="O17" s="8"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="94"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="79"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="39"/>
       <c r="F18" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G18" s="16">
         <v>451</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>78</v>
@@ -2503,7 +2509,7 @@
         <v>80</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>82</v>
@@ -2511,30 +2517,30 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="94">
+      <c r="A19" s="70">
         <v>15</v>
       </c>
-      <c r="B19" s="99"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="79" t="s">
+      <c r="B19" s="90"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="77" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G19" s="16">
         <v>419</v>
@@ -2551,7 +2557,7 @@
         <v>80</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>82</v>
@@ -2559,33 +2565,33 @@
       <c r="O19" s="8"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="94"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="79"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="77"/>
       <c r="E20" s="39"/>
       <c r="F20" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G20" s="16">
         <v>451</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>78</v>
@@ -2597,7 +2603,7 @@
         <v>80</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>82</v>
@@ -2605,30 +2611,30 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="94">
+      <c r="A21" s="70">
         <v>16</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="79" t="s">
+      <c r="B21" s="90"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="77" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G21" s="16">
         <v>419</v>
@@ -2645,7 +2651,7 @@
         <v>80</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>82</v>
@@ -2653,33 +2659,33 @@
       <c r="O21" s="8"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="94"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="79"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="39"/>
       <c r="F22" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G22" s="16">
         <v>451</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>78</v>
@@ -2691,7 +2697,7 @@
         <v>80</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>82</v>
@@ -2699,30 +2705,30 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="94">
+      <c r="A23" s="70">
         <v>17</v>
       </c>
-      <c r="B23" s="99"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="79" t="s">
+      <c r="B23" s="90"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="77" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G23" s="16">
         <v>419</v>
@@ -2739,7 +2745,7 @@
         <v>80</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>82</v>
@@ -2747,33 +2753,33 @@
       <c r="O23" s="8"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="94"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="79"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="77"/>
       <c r="E24" s="39"/>
       <c r="F24" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G24" s="16">
         <v>451</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>78</v>
@@ -2785,7 +2791,7 @@
         <v>80</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>82</v>
@@ -2793,30 +2799,30 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="94">
+      <c r="A25" s="70">
         <v>18</v>
       </c>
-      <c r="B25" s="99"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="79" t="s">
+      <c r="B25" s="90"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="77" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G25" s="16">
         <v>420</v>
@@ -2833,43 +2839,43 @@
         <v>80</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c r="P25" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="94"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="79"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="39"/>
       <c r="F26" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G26" s="16">
         <v>452</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>78</v>
@@ -2881,40 +2887,40 @@
         <v>80</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>82</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="94">
+      <c r="A27" s="70">
         <v>19</v>
       </c>
-      <c r="B27" s="99"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="79" t="s">
+      <c r="B27" s="90"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="77" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G27" s="16">
         <v>421</v>
@@ -2931,43 +2937,43 @@
         <v>80</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c r="P27" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="94"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="80"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="94"/>
       <c r="E28" s="41"/>
       <c r="F28" s="49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G28" s="50">
         <v>453</v>
       </c>
       <c r="H28" s="41"/>
       <c r="I28" s="57" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>78</v>
@@ -2979,42 +2985,42 @@
         <v>80</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="N28" s="11" t="s">
         <v>82</v>
       </c>
       <c r="O28" s="11"/>
       <c r="P28" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T28" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="94">
+      <c r="A29" s="70">
         <v>20</v>
       </c>
-      <c r="B29" s="99"/>
-      <c r="C29" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="97" t="s">
+      <c r="B29" s="90"/>
+      <c r="C29" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="72" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="38"/>
       <c r="F29" s="47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G29" s="15">
         <v>404</v>
@@ -3039,33 +3045,33 @@
       <c r="O29" s="9"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="94"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="86"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="73"/>
       <c r="E30" s="39"/>
       <c r="F30" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G30" s="16">
         <v>439</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>78</v>
@@ -3085,30 +3091,30 @@
       <c r="O30" s="8"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="94">
+      <c r="A31" s="70">
         <v>21</v>
       </c>
-      <c r="B31" s="99"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="79" t="s">
+      <c r="B31" s="90"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="77" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G31" s="16">
         <v>408</v>
@@ -3133,33 +3139,33 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="94"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="79"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="77"/>
       <c r="E32" s="39"/>
       <c r="F32" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G32" s="16">
         <v>440</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>78</v>
@@ -3179,30 +3185,30 @@
       <c r="O32" s="8"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="94">
+      <c r="A33" s="70">
         <v>22</v>
       </c>
-      <c r="B33" s="99"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="86" t="s">
+      <c r="B33" s="90"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="73" t="s">
         <v>26</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G33" s="16">
         <v>408</v>
@@ -3227,33 +3233,33 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="94"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="86"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="73"/>
       <c r="E34" s="39"/>
       <c r="F34" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G34" s="16">
         <v>440</v>
       </c>
       <c r="H34" s="39"/>
       <c r="I34" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>78</v>
@@ -3273,30 +3279,30 @@
       <c r="O34" s="8"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="94">
+      <c r="A35" s="70">
         <v>23</v>
       </c>
-      <c r="B35" s="99"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="86" t="s">
+      <c r="B35" s="90"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="73" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="39"/>
       <c r="F35" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G35" s="16">
         <v>408</v>
@@ -3321,33 +3327,33 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="94"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="86"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="73"/>
       <c r="E36" s="39"/>
       <c r="F36" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G36" s="16">
         <v>440</v>
       </c>
       <c r="H36" s="39"/>
       <c r="I36" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>78</v>
@@ -3367,30 +3373,30 @@
       <c r="O36" s="8"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="94">
+      <c r="A37" s="70">
         <v>24</v>
       </c>
-      <c r="B37" s="99"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="86" t="s">
+      <c r="B37" s="90"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="73" t="s">
         <v>28</v>
       </c>
       <c r="E37" s="39"/>
       <c r="F37" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G37" s="16">
         <v>408</v>
@@ -3415,33 +3421,33 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="94"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="86"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="73"/>
       <c r="E38" s="39"/>
       <c r="F38" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G38" s="16">
         <v>440</v>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>78</v>
@@ -3461,30 +3467,30 @@
       <c r="O38" s="8"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="94">
+      <c r="A39" s="70">
         <v>25</v>
       </c>
-      <c r="B39" s="99"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="86" t="s">
+      <c r="B39" s="90"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="73" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="39"/>
       <c r="F39" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G39" s="16">
         <v>409</v>
@@ -3508,36 +3514,36 @@
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="94"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="86"/>
+      <c r="A40" s="70"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="73"/>
       <c r="E40" s="39"/>
       <c r="F40" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G40" s="16">
         <v>441</v>
       </c>
       <c r="H40" s="39"/>
       <c r="I40" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>78</v>
@@ -3556,33 +3562,33 @@
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="94">
+      <c r="A41" s="70">
         <v>26</v>
       </c>
-      <c r="B41" s="99"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="86" t="s">
+      <c r="B41" s="90"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="73" t="s">
         <v>30</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G41" s="16">
         <v>410</v>
@@ -3606,36 +3612,36 @@
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="94"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="86"/>
+      <c r="A42" s="70"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="73"/>
       <c r="E42" s="39"/>
       <c r="F42" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G42" s="16">
         <v>442</v>
       </c>
       <c r="H42" s="39"/>
       <c r="I42" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>78</v>
@@ -3654,33 +3660,33 @@
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="94">
+      <c r="A43" s="70">
         <v>27</v>
       </c>
-      <c r="B43" s="99"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="79" t="s">
+      <c r="B43" s="90"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="77" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="39"/>
       <c r="F43" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G43" s="16">
         <v>411</v>
@@ -3704,36 +3710,36 @@
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="94"/>
-      <c r="B44" s="99"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="80"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="94"/>
       <c r="E44" s="41"/>
       <c r="F44" s="49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G44" s="50">
         <v>443</v>
       </c>
       <c r="H44" s="41"/>
       <c r="I44" s="59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J44" s="11" t="s">
         <v>78</v>
@@ -3752,28 +3758,28 @@
       </c>
       <c r="O44" s="11"/>
       <c r="P44" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R44" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S44" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T44" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="35">
         <v>28</v>
       </c>
-      <c r="B45" s="99"/>
-      <c r="C45" s="81" t="s">
-        <v>145</v>
+      <c r="B45" s="90"/>
+      <c r="C45" s="67" t="s">
+        <v>143</v>
       </c>
       <c r="D45" s="26" t="s">
         <v>32</v>
@@ -3804,27 +3810,27 @@
       </c>
       <c r="O45" s="3"/>
       <c r="P45" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T45" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="35">
         <v>29</v>
       </c>
-      <c r="B46" s="99"/>
-      <c r="C46" s="82"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="27" t="s">
         <v>33</v>
       </c>
@@ -3854,27 +3860,27 @@
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="36">
         <v>30</v>
       </c>
-      <c r="B47" s="101"/>
-      <c r="C47" s="83"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="69"/>
       <c r="D47" s="28" t="s">
         <v>34</v>
       </c>
@@ -3904,44 +3910,44 @@
       </c>
       <c r="O47" s="11"/>
       <c r="P47" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q47" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R47" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T47" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="102">
+      <c r="A48" s="71">
         <v>31</v>
       </c>
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="81" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="97" t="s">
+      <c r="C48" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="72" t="s">
         <v>35</v>
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G48" s="15">
         <v>395</v>
       </c>
       <c r="H48" s="38"/>
       <c r="I48" s="61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>78</v>
@@ -3959,32 +3965,32 @@
         <v>82</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P48" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T48" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="94"/>
-      <c r="B49" s="99"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="86"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="73"/>
       <c r="E49" s="39"/>
       <c r="F49" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G49" s="16">
         <v>433</v>
@@ -4009,43 +4015,43 @@
         <v>82</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="94">
+      <c r="A50" s="70">
         <v>32</v>
       </c>
-      <c r="B50" s="99"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="79" t="s">
+      <c r="B50" s="90"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="77" t="s">
         <v>36</v>
       </c>
       <c r="E50" s="39"/>
       <c r="F50" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" s="16">
         <v>397</v>
       </c>
       <c r="H50" s="39"/>
       <c r="I50" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>78</v>
@@ -4063,32 +4069,32 @@
         <v>82</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P50" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q50" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="94"/>
-      <c r="B51" s="99"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="79"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="77"/>
       <c r="E51" s="39"/>
       <c r="F51" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G51" s="16">
         <v>434</v>
@@ -4113,43 +4119,43 @@
         <v>82</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q51" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T51" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="94">
+      <c r="A52" s="70">
         <v>33</v>
       </c>
-      <c r="B52" s="99"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="84" t="s">
+      <c r="B52" s="90"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="75" t="s">
         <v>37</v>
       </c>
       <c r="E52" s="39"/>
       <c r="F52" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G52" s="16">
         <v>397</v>
       </c>
       <c r="H52" s="39"/>
       <c r="I52" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>78</v>
@@ -4167,32 +4173,32 @@
         <v>82</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T52" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="94"/>
-      <c r="B53" s="99"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="84"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="75"/>
       <c r="E53" s="39"/>
       <c r="F53" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G53" s="16">
         <v>434</v>
@@ -4217,43 +4223,43 @@
         <v>82</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q53" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T53" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="94">
+      <c r="A54" s="70">
         <v>34</v>
       </c>
-      <c r="B54" s="99"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="79" t="s">
+      <c r="B54" s="90"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="77" t="s">
         <v>38</v>
       </c>
       <c r="E54" s="39"/>
       <c r="F54" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G54" s="16">
         <v>397</v>
       </c>
       <c r="H54" s="39"/>
       <c r="I54" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>78</v>
@@ -4271,32 +4277,32 @@
         <v>82</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q54" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T54" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="94"/>
-      <c r="B55" s="99"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="79"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="77"/>
       <c r="E55" s="39"/>
       <c r="F55" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G55" s="16">
         <v>434</v>
@@ -4321,43 +4327,43 @@
         <v>82</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P55" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q55" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T55" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="94">
+      <c r="A56" s="70">
         <v>35</v>
       </c>
-      <c r="B56" s="99"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="84" t="s">
+      <c r="B56" s="90"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="75" t="s">
         <v>39</v>
       </c>
       <c r="E56" s="39"/>
       <c r="F56" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G56" s="16">
         <v>398</v>
       </c>
       <c r="H56" s="39"/>
       <c r="I56" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>78</v>
@@ -4375,32 +4381,32 @@
         <v>82</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q56" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T56" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="94"/>
-      <c r="B57" s="99"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="84"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="75"/>
       <c r="E57" s="39"/>
       <c r="F57" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G57" s="16">
         <v>434</v>
@@ -4425,43 +4431,43 @@
         <v>82</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q57" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="94">
+      <c r="A58" s="70">
         <v>36</v>
       </c>
-      <c r="B58" s="99"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="84" t="s">
+      <c r="B58" s="90"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="75" t="s">
         <v>40</v>
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G58" s="16">
         <v>398</v>
       </c>
       <c r="H58" s="39"/>
       <c r="I58" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>78</v>
@@ -4479,32 +4485,32 @@
         <v>82</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P58" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q58" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T58" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="94"/>
-      <c r="B59" s="99"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="84"/>
+      <c r="A59" s="70"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="75"/>
       <c r="E59" s="39"/>
       <c r="F59" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G59" s="16">
         <v>434</v>
@@ -4529,43 +4535,43 @@
         <v>82</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P59" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q59" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T59" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="94">
+      <c r="A60" s="70">
         <v>37</v>
       </c>
-      <c r="B60" s="99"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="84" t="s">
+      <c r="B60" s="90"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E60" s="39"/>
       <c r="F60" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G60" s="16">
         <v>399</v>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>78</v>
@@ -4583,32 +4589,32 @@
         <v>82</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P60" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q60" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T60" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="94"/>
-      <c r="B61" s="99"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="84"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="75"/>
       <c r="E61" s="39"/>
       <c r="F61" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G61" s="16">
         <v>434</v>
@@ -4633,43 +4639,43 @@
         <v>82</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q61" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T61" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="94">
+      <c r="A62" s="70">
         <v>38</v>
       </c>
-      <c r="B62" s="99"/>
-      <c r="C62" s="82"/>
-      <c r="D62" s="84" t="s">
+      <c r="B62" s="90"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="75" t="s">
         <v>42</v>
       </c>
       <c r="E62" s="39"/>
       <c r="F62" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G62" s="16">
         <v>399</v>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>78</v>
@@ -4687,32 +4693,32 @@
         <v>82</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P62" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q62" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T62" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="94"/>
-      <c r="B63" s="99"/>
-      <c r="C63" s="103"/>
-      <c r="D63" s="74"/>
+      <c r="A63" s="70"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="76"/>
       <c r="E63" s="40"/>
       <c r="F63" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G63" s="17">
         <v>434</v>
@@ -4737,38 +4743,38 @@
         <v>82</v>
       </c>
       <c r="O63" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P63" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q63" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R63" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S63" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T63" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="71">
+      <c r="A64" s="87">
         <v>39</v>
       </c>
-      <c r="B64" s="99"/>
-      <c r="C64" s="81" t="s">
-        <v>142</v>
-      </c>
-      <c r="D64" s="67" t="s">
+      <c r="B64" s="90"/>
+      <c r="C64" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="81" t="s">
         <v>35</v>
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G64" s="15">
         <v>412</v>
@@ -4791,39 +4797,39 @@
         <v>82</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P64" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T64" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="72"/>
-      <c r="B65" s="99"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="68"/>
+      <c r="A65" s="88"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="82"/>
       <c r="E65" s="39"/>
       <c r="F65" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G65" s="16">
         <v>444</v>
       </c>
       <c r="H65" s="39"/>
       <c r="I65" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>78</v>
@@ -4841,36 +4847,36 @@
         <v>82</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P65" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q65" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T65" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="71">
+      <c r="A66" s="87">
         <v>40</v>
       </c>
-      <c r="B66" s="99"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="77" t="s">
+      <c r="B66" s="90"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="100" t="s">
         <v>36</v>
       </c>
       <c r="E66" s="39"/>
       <c r="F66" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G66" s="16">
         <v>413</v>
@@ -4893,39 +4899,39 @@
         <v>82</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P66" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q66" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T66" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="72"/>
-      <c r="B67" s="99"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="78"/>
+      <c r="A67" s="88"/>
+      <c r="B67" s="90"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="105"/>
       <c r="E67" s="39"/>
       <c r="F67" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G67" s="16">
         <v>445</v>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>78</v>
@@ -4943,36 +4949,36 @@
         <v>82</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q67" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T67" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="71">
+      <c r="A68" s="87">
         <v>41</v>
       </c>
-      <c r="B68" s="99"/>
-      <c r="C68" s="82"/>
-      <c r="D68" s="69" t="s">
+      <c r="B68" s="90"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="83" t="s">
         <v>37</v>
       </c>
       <c r="E68" s="39"/>
       <c r="F68" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G68" s="16">
         <v>413</v>
@@ -4995,39 +5001,39 @@
         <v>82</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P68" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q68" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T68" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="72"/>
-      <c r="B69" s="99"/>
-      <c r="C69" s="82"/>
-      <c r="D69" s="68"/>
+      <c r="A69" s="88"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="82"/>
       <c r="E69" s="39"/>
       <c r="F69" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G69" s="16">
         <v>445</v>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>78</v>
@@ -5045,36 +5051,36 @@
         <v>82</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T69" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A70" s="71">
+      <c r="A70" s="87">
         <v>42</v>
       </c>
-      <c r="B70" s="99"/>
-      <c r="C70" s="82"/>
-      <c r="D70" s="69" t="s">
+      <c r="B70" s="90"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="83" t="s">
         <v>38</v>
       </c>
       <c r="E70" s="39"/>
       <c r="F70" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G70" s="16">
         <v>413</v>
@@ -5097,39 +5103,39 @@
         <v>82</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P70" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T70" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="72"/>
-      <c r="B71" s="99"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="68"/>
+      <c r="A71" s="88"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="82"/>
       <c r="E71" s="39"/>
       <c r="F71" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G71" s="16">
         <v>445</v>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>78</v>
@@ -5147,36 +5153,36 @@
         <v>82</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P71" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q71" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T71" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="71">
+      <c r="A72" s="87">
         <v>43</v>
       </c>
-      <c r="B72" s="99"/>
-      <c r="C72" s="82"/>
-      <c r="D72" s="69" t="s">
+      <c r="B72" s="90"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="83" t="s">
         <v>39</v>
       </c>
       <c r="E72" s="39"/>
       <c r="F72" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G72" s="16">
         <v>413</v>
@@ -5199,39 +5205,39 @@
         <v>82</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q72" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T72" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="72"/>
-      <c r="B73" s="99"/>
-      <c r="C73" s="82"/>
-      <c r="D73" s="68"/>
+      <c r="A73" s="88"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="82"/>
       <c r="E73" s="39"/>
       <c r="F73" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G73" s="16">
         <v>445</v>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>78</v>
@@ -5249,36 +5255,36 @@
         <v>82</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P73" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T73" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="71">
+      <c r="A74" s="87">
         <v>44</v>
       </c>
-      <c r="B74" s="99"/>
-      <c r="C74" s="82"/>
-      <c r="D74" s="69" t="s">
+      <c r="B74" s="90"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="83" t="s">
         <v>40</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G74" s="16">
         <v>413</v>
@@ -5301,39 +5307,39 @@
         <v>82</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P74" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q74" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T74" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="72"/>
-      <c r="B75" s="99"/>
-      <c r="C75" s="82"/>
-      <c r="D75" s="68"/>
+      <c r="A75" s="88"/>
+      <c r="B75" s="90"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="82"/>
       <c r="E75" s="39"/>
       <c r="F75" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G75" s="16">
         <v>445</v>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>78</v>
@@ -5351,36 +5357,36 @@
         <v>82</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P75" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q75" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T75" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="71">
+      <c r="A76" s="87">
         <v>45</v>
       </c>
-      <c r="B76" s="99"/>
-      <c r="C76" s="82"/>
-      <c r="D76" s="69" t="s">
+      <c r="B76" s="90"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="83" t="s">
         <v>43</v>
       </c>
       <c r="E76" s="39"/>
       <c r="F76" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G76" s="16">
         <v>413</v>
@@ -5403,39 +5409,39 @@
         <v>82</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P76" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q76" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T76" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="72"/>
-      <c r="B77" s="99"/>
-      <c r="C77" s="82"/>
-      <c r="D77" s="68"/>
+      <c r="A77" s="88"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="82"/>
       <c r="E77" s="39"/>
       <c r="F77" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G77" s="16">
         <v>445</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>78</v>
@@ -5453,36 +5459,36 @@
         <v>82</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P77" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q77" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T77" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="71">
+      <c r="A78" s="87">
         <v>46</v>
       </c>
-      <c r="B78" s="99"/>
-      <c r="C78" s="82"/>
-      <c r="D78" s="69" t="s">
+      <c r="B78" s="90"/>
+      <c r="C78" s="68"/>
+      <c r="D78" s="83" t="s">
         <v>44</v>
       </c>
       <c r="E78" s="39"/>
       <c r="F78" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G78" s="16">
         <v>413</v>
@@ -5505,39 +5511,39 @@
         <v>82</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P78" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q78" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T78" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="72"/>
-      <c r="B79" s="99"/>
-      <c r="C79" s="83"/>
-      <c r="D79" s="70"/>
+      <c r="A79" s="88"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="104"/>
       <c r="E79" s="41"/>
       <c r="F79" s="49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G79" s="50">
         <v>445</v>
       </c>
       <c r="H79" s="41"/>
       <c r="I79" s="59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J79" s="11" t="s">
         <v>78</v>
@@ -5555,31 +5561,31 @@
         <v>82</v>
       </c>
       <c r="O79" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P79" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q79" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R79" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S79" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T79" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A80" s="35">
         <v>47</v>
       </c>
-      <c r="B80" s="99"/>
-      <c r="C80" s="81" t="s">
-        <v>141</v>
+      <c r="B80" s="90"/>
+      <c r="C80" s="67" t="s">
+        <v>139</v>
       </c>
       <c r="D80" s="31" t="s">
         <v>45</v>
@@ -5609,30 +5615,30 @@
         <v>82</v>
       </c>
       <c r="O80" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P80" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q80" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T80" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A81" s="35">
         <v>48</v>
       </c>
-      <c r="B81" s="99"/>
-      <c r="C81" s="82"/>
+      <c r="B81" s="90"/>
+      <c r="C81" s="68"/>
       <c r="D81" s="23" t="s">
         <v>46</v>
       </c>
@@ -5661,30 +5667,30 @@
         <v>82</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P81" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q81" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T81" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A82" s="35">
         <v>49</v>
       </c>
-      <c r="B82" s="99"/>
-      <c r="C82" s="82"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="68"/>
       <c r="D82" s="23" t="s">
         <v>47</v>
       </c>
@@ -5713,30 +5719,30 @@
         <v>82</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P82" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q82" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T82" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A83" s="35">
         <v>50</v>
       </c>
-      <c r="B83" s="99"/>
-      <c r="C83" s="82"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="68"/>
       <c r="D83" s="23" t="s">
         <v>48</v>
       </c>
@@ -5765,30 +5771,30 @@
         <v>82</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P83" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q83" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T83" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A84" s="35">
         <v>51</v>
       </c>
-      <c r="B84" s="99"/>
-      <c r="C84" s="82"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="68"/>
       <c r="D84" s="23" t="s">
         <v>49</v>
       </c>
@@ -5817,30 +5823,30 @@
         <v>82</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P84" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q84" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T84" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A85" s="35">
         <v>52</v>
       </c>
-      <c r="B85" s="99"/>
-      <c r="C85" s="82"/>
+      <c r="B85" s="90"/>
+      <c r="C85" s="68"/>
       <c r="D85" s="23" t="s">
         <v>50</v>
       </c>
@@ -5869,30 +5875,30 @@
         <v>82</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P85" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q85" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T85" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A86" s="35">
         <v>53</v>
       </c>
-      <c r="B86" s="99"/>
-      <c r="C86" s="82"/>
+      <c r="B86" s="90"/>
+      <c r="C86" s="68"/>
       <c r="D86" s="23" t="s">
         <v>49</v>
       </c>
@@ -5921,30 +5927,30 @@
         <v>82</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P86" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q86" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T86" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="37">
         <v>54</v>
       </c>
-      <c r="B87" s="101"/>
-      <c r="C87" s="83"/>
+      <c r="B87" s="92"/>
+      <c r="C87" s="69"/>
       <c r="D87" s="32" t="s">
         <v>50</v>
       </c>
@@ -5973,47 +5979,47 @@
         <v>82</v>
       </c>
       <c r="O87" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P87" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q87" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R87" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S87" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T87" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="76">
+      <c r="A88" s="93">
         <v>55</v>
       </c>
-      <c r="B88" s="98" t="s">
+      <c r="B88" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="C88" s="88" t="s">
-        <v>139</v>
-      </c>
-      <c r="D88" s="87" t="s">
-        <v>104</v>
+      <c r="C88" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="D88" s="102" t="s">
+        <v>102</v>
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G88" s="15">
         <v>400</v>
       </c>
       <c r="H88" s="38"/>
       <c r="I88" s="61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>78</v>
@@ -6031,32 +6037,32 @@
         <v>82</v>
       </c>
       <c r="O88" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P88" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q88" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R88" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T88" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A89" s="72"/>
-      <c r="B89" s="99"/>
-      <c r="C89" s="89"/>
-      <c r="D89" s="75"/>
+      <c r="A89" s="88"/>
+      <c r="B89" s="90"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="103"/>
       <c r="E89" s="39"/>
       <c r="F89" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G89" s="16">
         <v>435</v>
@@ -6081,43 +6087,43 @@
         <v>82</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P89" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q89" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T89" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A90" s="71">
+      <c r="A90" s="87">
         <v>56</v>
       </c>
-      <c r="B90" s="99"/>
-      <c r="C90" s="89"/>
-      <c r="D90" s="69" t="s">
-        <v>107</v>
+      <c r="B90" s="90"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="83" t="s">
+        <v>105</v>
       </c>
       <c r="E90" s="39"/>
       <c r="F90" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G90" s="16">
         <v>401</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>78</v>
@@ -6135,32 +6141,32 @@
         <v>82</v>
       </c>
       <c r="O90" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P90" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q90" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T90" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="72"/>
-      <c r="B91" s="99"/>
-      <c r="C91" s="89"/>
-      <c r="D91" s="68"/>
+      <c r="A91" s="88"/>
+      <c r="B91" s="90"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="82"/>
       <c r="E91" s="39"/>
       <c r="F91" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G91" s="16">
         <v>436</v>
@@ -6185,43 +6191,43 @@
         <v>82</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P91" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q91" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T91" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="71">
+      <c r="A92" s="87">
         <v>57</v>
       </c>
-      <c r="B92" s="99"/>
-      <c r="C92" s="89"/>
-      <c r="D92" s="69" t="s">
-        <v>113</v>
+      <c r="B92" s="90"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="83" t="s">
+        <v>111</v>
       </c>
       <c r="E92" s="39"/>
       <c r="F92" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G92" s="16">
         <v>401</v>
       </c>
       <c r="H92" s="39"/>
       <c r="I92" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>78</v>
@@ -6239,32 +6245,32 @@
         <v>82</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P92" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q92" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T92" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A93" s="72"/>
-      <c r="B93" s="99"/>
-      <c r="C93" s="89"/>
-      <c r="D93" s="68"/>
+      <c r="A93" s="88"/>
+      <c r="B93" s="90"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="82"/>
       <c r="E93" s="39"/>
       <c r="F93" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G93" s="16">
         <v>436</v>
@@ -6289,43 +6295,43 @@
         <v>82</v>
       </c>
       <c r="O93" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P93" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q93" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T93" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="71">
+      <c r="A94" s="87">
         <v>58</v>
       </c>
-      <c r="B94" s="99"/>
-      <c r="C94" s="89"/>
-      <c r="D94" s="69" t="s">
-        <v>118</v>
+      <c r="B94" s="90"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="83" t="s">
+        <v>116</v>
       </c>
       <c r="E94" s="39"/>
       <c r="F94" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G94" s="16">
         <v>401</v>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>78</v>
@@ -6343,32 +6349,32 @@
         <v>82</v>
       </c>
       <c r="O94" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P94" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q94" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T94" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="72"/>
-      <c r="B95" s="99"/>
-      <c r="C95" s="89"/>
-      <c r="D95" s="68"/>
+      <c r="A95" s="88"/>
+      <c r="B95" s="90"/>
+      <c r="C95" s="85"/>
+      <c r="D95" s="82"/>
       <c r="E95" s="39"/>
       <c r="F95" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G95" s="16">
         <v>436</v>
@@ -6393,43 +6399,43 @@
         <v>82</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P95" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q95" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T95" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A96" s="71">
+      <c r="A96" s="87">
         <v>59</v>
       </c>
-      <c r="B96" s="99"/>
-      <c r="C96" s="89"/>
-      <c r="D96" s="77" t="s">
-        <v>112</v>
+      <c r="B96" s="90"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="100" t="s">
+        <v>110</v>
       </c>
       <c r="E96" s="39"/>
       <c r="F96" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G96" s="16">
         <v>401</v>
       </c>
       <c r="H96" s="39"/>
       <c r="I96" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>78</v>
@@ -6447,32 +6453,32 @@
         <v>82</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P96" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q96" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T96" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="72"/>
-      <c r="B97" s="99"/>
-      <c r="C97" s="90"/>
-      <c r="D97" s="85"/>
+      <c r="A97" s="88"/>
+      <c r="B97" s="90"/>
+      <c r="C97" s="86"/>
+      <c r="D97" s="101"/>
       <c r="E97" s="41"/>
       <c r="F97" s="49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G97" s="50">
         <v>436</v>
@@ -6497,38 +6503,38 @@
         <v>82</v>
       </c>
       <c r="O97" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P97" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q97" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="R97" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="S97" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T97" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A98" s="87">
+        <v>60</v>
+      </c>
+      <c r="B98" s="90"/>
+      <c r="C98" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="D98" s="81" t="s">
         <v>103</v>
-      </c>
-      <c r="R97" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="S97" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="T97" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A98" s="71">
-        <v>60</v>
-      </c>
-      <c r="B98" s="99"/>
-      <c r="C98" s="81" t="s">
-        <v>140</v>
-      </c>
-      <c r="D98" s="67" t="s">
-        <v>105</v>
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G98" s="15">
         <v>414</v>
@@ -6551,39 +6557,39 @@
         <v>82</v>
       </c>
       <c r="O98" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P98" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q98" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R98" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S98" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T98" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A99" s="72"/>
-      <c r="B99" s="99"/>
-      <c r="C99" s="82"/>
-      <c r="D99" s="68"/>
+      <c r="A99" s="88"/>
+      <c r="B99" s="90"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="82"/>
       <c r="E99" s="39"/>
       <c r="F99" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G99" s="16">
         <v>446</v>
       </c>
       <c r="H99" s="39"/>
       <c r="I99" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>78</v>
@@ -6601,36 +6607,36 @@
         <v>82</v>
       </c>
       <c r="O99" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P99" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q99" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T99" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A100" s="71">
+      <c r="A100" s="87">
         <v>61</v>
       </c>
-      <c r="B100" s="99"/>
-      <c r="C100" s="82"/>
-      <c r="D100" s="69" t="s">
-        <v>108</v>
+      <c r="B100" s="90"/>
+      <c r="C100" s="68"/>
+      <c r="D100" s="83" t="s">
+        <v>106</v>
       </c>
       <c r="E100" s="39"/>
       <c r="F100" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G100" s="16">
         <v>415</v>
@@ -6653,39 +6659,39 @@
         <v>82</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P100" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q100" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T100" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A101" s="72"/>
-      <c r="B101" s="99"/>
-      <c r="C101" s="82"/>
-      <c r="D101" s="68"/>
+      <c r="A101" s="88"/>
+      <c r="B101" s="90"/>
+      <c r="C101" s="68"/>
+      <c r="D101" s="82"/>
       <c r="E101" s="39"/>
       <c r="F101" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G101" s="16">
         <v>447</v>
       </c>
       <c r="H101" s="39"/>
       <c r="I101" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>78</v>
@@ -6703,36 +6709,36 @@
         <v>82</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P101" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q101" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T101" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A102" s="71">
+      <c r="A102" s="87">
         <v>62</v>
       </c>
-      <c r="B102" s="99"/>
-      <c r="C102" s="82"/>
-      <c r="D102" s="69" t="s">
-        <v>114</v>
+      <c r="B102" s="90"/>
+      <c r="C102" s="68"/>
+      <c r="D102" s="83" t="s">
+        <v>112</v>
       </c>
       <c r="E102" s="39"/>
       <c r="F102" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G102" s="16">
         <v>415</v>
@@ -6755,39 +6761,39 @@
         <v>82</v>
       </c>
       <c r="O102" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P102" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q102" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T102" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A103" s="72"/>
-      <c r="B103" s="99"/>
-      <c r="C103" s="82"/>
-      <c r="D103" s="68"/>
+      <c r="A103" s="88"/>
+      <c r="B103" s="90"/>
+      <c r="C103" s="68"/>
+      <c r="D103" s="82"/>
       <c r="E103" s="39"/>
       <c r="F103" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G103" s="16">
         <v>447</v>
       </c>
       <c r="H103" s="39"/>
       <c r="I103" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>78</v>
@@ -6805,36 +6811,36 @@
         <v>82</v>
       </c>
       <c r="O103" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P103" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q103" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T103" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A104" s="71">
+      <c r="A104" s="87">
         <v>63</v>
       </c>
-      <c r="B104" s="99"/>
-      <c r="C104" s="82"/>
-      <c r="D104" s="69" t="s">
-        <v>116</v>
+      <c r="B104" s="90"/>
+      <c r="C104" s="68"/>
+      <c r="D104" s="83" t="s">
+        <v>114</v>
       </c>
       <c r="E104" s="39"/>
       <c r="F104" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G104" s="16">
         <v>415</v>
@@ -6857,39 +6863,39 @@
         <v>82</v>
       </c>
       <c r="O104" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P104" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q104" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T104" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A105" s="72"/>
-      <c r="B105" s="99"/>
-      <c r="C105" s="82"/>
-      <c r="D105" s="68"/>
+      <c r="A105" s="88"/>
+      <c r="B105" s="90"/>
+      <c r="C105" s="68"/>
+      <c r="D105" s="82"/>
       <c r="E105" s="39"/>
       <c r="F105" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G105" s="16">
         <v>447</v>
       </c>
       <c r="H105" s="39"/>
       <c r="I105" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>78</v>
@@ -6907,36 +6913,36 @@
         <v>82</v>
       </c>
       <c r="O105" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P105" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q105" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R105" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T105" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A106" s="71">
+      <c r="A106" s="87">
         <v>64</v>
       </c>
-      <c r="B106" s="99"/>
-      <c r="C106" s="82"/>
-      <c r="D106" s="69" t="s">
-        <v>111</v>
+      <c r="B106" s="90"/>
+      <c r="C106" s="68"/>
+      <c r="D106" s="83" t="s">
+        <v>109</v>
       </c>
       <c r="E106" s="39"/>
       <c r="F106" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G106" s="16">
         <v>415</v>
@@ -6959,39 +6965,39 @@
         <v>82</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P106" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q106" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R106" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S106" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T106" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="72"/>
-      <c r="B107" s="99"/>
-      <c r="C107" s="83"/>
-      <c r="D107" s="70"/>
+      <c r="A107" s="88"/>
+      <c r="B107" s="90"/>
+      <c r="C107" s="69"/>
+      <c r="D107" s="104"/>
       <c r="E107" s="41"/>
       <c r="F107" s="49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G107" s="50">
         <v>447</v>
       </c>
       <c r="H107" s="41"/>
       <c r="I107" s="59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J107" s="11" t="s">
         <v>78</v>
@@ -7009,34 +7015,34 @@
         <v>82</v>
       </c>
       <c r="O107" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P107" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q107" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R107" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S107" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T107" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A108" s="35">
         <v>65</v>
       </c>
-      <c r="B108" s="99"/>
-      <c r="C108" s="81" t="s">
-        <v>143</v>
+      <c r="B108" s="90"/>
+      <c r="C108" s="67" t="s">
+        <v>141</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E108" s="42"/>
       <c r="F108" s="15">
@@ -7063,32 +7069,32 @@
         <v>82</v>
       </c>
       <c r="O108" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P108" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q108" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R108" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S108" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T108" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A109" s="35">
         <v>66</v>
       </c>
-      <c r="B109" s="99"/>
-      <c r="C109" s="82"/>
+      <c r="B109" s="90"/>
+      <c r="C109" s="68"/>
       <c r="D109" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E109" s="43"/>
       <c r="F109" s="16">
@@ -7115,32 +7121,32 @@
         <v>82</v>
       </c>
       <c r="O109" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P109" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q109" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R109" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S109" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T109" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A110" s="35">
         <v>67</v>
       </c>
-      <c r="B110" s="99"/>
-      <c r="C110" s="82"/>
+      <c r="B110" s="90"/>
+      <c r="C110" s="68"/>
       <c r="D110" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E110" s="43"/>
       <c r="F110" s="16">
@@ -7167,32 +7173,32 @@
         <v>82</v>
       </c>
       <c r="O110" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P110" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q110" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R110" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S110" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T110" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A111" s="35">
         <v>68</v>
       </c>
-      <c r="B111" s="99"/>
-      <c r="C111" s="82"/>
+      <c r="B111" s="90"/>
+      <c r="C111" s="68"/>
       <c r="D111" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E111" s="43"/>
       <c r="F111" s="16">
@@ -7219,32 +7225,32 @@
         <v>82</v>
       </c>
       <c r="O111" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P111" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q111" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R111" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S111" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T111" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="36">
         <v>69</v>
       </c>
-      <c r="B112" s="100"/>
-      <c r="C112" s="83"/>
+      <c r="B112" s="91"/>
+      <c r="C112" s="69"/>
       <c r="D112" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E112" s="44"/>
       <c r="F112" s="50">
@@ -7271,47 +7277,47 @@
         <v>82</v>
       </c>
       <c r="O112" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P112" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q112" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R112" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S112" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T112" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="76">
+      <c r="A113" s="93">
         <v>70</v>
       </c>
-      <c r="B113" s="98" t="s">
+      <c r="B113" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="D113" s="67" t="s">
+      <c r="C113" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="D113" s="81" t="s">
         <v>53</v>
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H113" s="38"/>
       <c r="I113" s="61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J113" s="3" t="s">
         <v>78</v>
@@ -7329,32 +7335,32 @@
         <v>82</v>
       </c>
       <c r="O113" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P113" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q113" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R113" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S113" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T113" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A114" s="72"/>
-      <c r="B114" s="99"/>
-      <c r="C114" s="89"/>
-      <c r="D114" s="68"/>
+      <c r="A114" s="88"/>
+      <c r="B114" s="90"/>
+      <c r="C114" s="85"/>
+      <c r="D114" s="82"/>
       <c r="E114" s="39"/>
       <c r="F114" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G114" s="16">
         <v>437</v>
@@ -7379,43 +7385,43 @@
         <v>82</v>
       </c>
       <c r="O114" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P114" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q114" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R114" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S114" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T114" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A115" s="71">
+      <c r="A115" s="87">
         <v>71</v>
       </c>
-      <c r="B115" s="99"/>
-      <c r="C115" s="89"/>
-      <c r="D115" s="69" t="s">
+      <c r="B115" s="90"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="83" t="s">
         <v>54</v>
       </c>
       <c r="E115" s="39"/>
       <c r="F115" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H115" s="39"/>
       <c r="I115" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>78</v>
@@ -7433,32 +7439,32 @@
         <v>82</v>
       </c>
       <c r="O115" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P115" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q115" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R115" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S115" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T115" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A116" s="72"/>
-      <c r="B116" s="99"/>
-      <c r="C116" s="89"/>
-      <c r="D116" s="68"/>
+      <c r="A116" s="88"/>
+      <c r="B116" s="90"/>
+      <c r="C116" s="85"/>
+      <c r="D116" s="82"/>
       <c r="E116" s="39"/>
       <c r="F116" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G116" s="16">
         <v>437</v>
@@ -7483,43 +7489,43 @@
         <v>82</v>
       </c>
       <c r="O116" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P116" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q116" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R116" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S116" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T116" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A117" s="71">
+      <c r="A117" s="87">
         <v>72</v>
       </c>
-      <c r="B117" s="99"/>
-      <c r="C117" s="89"/>
-      <c r="D117" s="69" t="s">
+      <c r="B117" s="90"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="83" t="s">
         <v>55</v>
       </c>
       <c r="E117" s="39"/>
       <c r="F117" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H117" s="39"/>
       <c r="I117" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>78</v>
@@ -7537,32 +7543,32 @@
         <v>82</v>
       </c>
       <c r="O117" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P117" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q117" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R117" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S117" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T117" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A118" s="72"/>
-      <c r="B118" s="99"/>
-      <c r="C118" s="89"/>
-      <c r="D118" s="68"/>
+      <c r="A118" s="88"/>
+      <c r="B118" s="90"/>
+      <c r="C118" s="85"/>
+      <c r="D118" s="82"/>
       <c r="E118" s="39"/>
       <c r="F118" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G118" s="16">
         <v>437</v>
@@ -7587,43 +7593,43 @@
         <v>82</v>
       </c>
       <c r="O118" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P118" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q118" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R118" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S118" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T118" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A119" s="71">
+      <c r="A119" s="87">
         <v>73</v>
       </c>
-      <c r="B119" s="99"/>
-      <c r="C119" s="89"/>
-      <c r="D119" s="69" t="s">
+      <c r="B119" s="90"/>
+      <c r="C119" s="85"/>
+      <c r="D119" s="83" t="s">
         <v>56</v>
       </c>
       <c r="E119" s="39"/>
       <c r="F119" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H119" s="39"/>
       <c r="I119" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>78</v>
@@ -7641,32 +7647,32 @@
         <v>82</v>
       </c>
       <c r="O119" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P119" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q119" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R119" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S119" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T119" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="72"/>
-      <c r="B120" s="99"/>
-      <c r="C120" s="90"/>
-      <c r="D120" s="70"/>
+      <c r="A120" s="88"/>
+      <c r="B120" s="90"/>
+      <c r="C120" s="86"/>
+      <c r="D120" s="104"/>
       <c r="E120" s="41"/>
       <c r="F120" s="49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G120" s="50">
         <v>437</v>
@@ -7691,38 +7697,38 @@
         <v>82</v>
       </c>
       <c r="O120" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P120" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q120" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R120" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S120" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T120" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A121" s="71">
+      <c r="A121" s="87">
         <v>74</v>
       </c>
-      <c r="B121" s="99"/>
-      <c r="C121" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="D121" s="67" t="s">
+      <c r="B121" s="90"/>
+      <c r="C121" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="D121" s="81" t="s">
         <v>57</v>
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G121" s="15">
         <v>416</v>
@@ -7745,39 +7751,39 @@
         <v>82</v>
       </c>
       <c r="O121" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P121" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q121" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R121" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S121" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T121" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A122" s="72"/>
-      <c r="B122" s="99"/>
-      <c r="C122" s="82"/>
-      <c r="D122" s="68"/>
+      <c r="A122" s="88"/>
+      <c r="B122" s="90"/>
+      <c r="C122" s="68"/>
+      <c r="D122" s="82"/>
       <c r="E122" s="39"/>
       <c r="F122" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G122" s="16">
         <v>448</v>
       </c>
       <c r="H122" s="39"/>
       <c r="I122" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>78</v>
@@ -7795,36 +7801,36 @@
         <v>82</v>
       </c>
       <c r="O122" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P122" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q122" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R122" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S122" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T122" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A123" s="71">
+      <c r="A123" s="87">
         <v>75</v>
       </c>
-      <c r="B123" s="99"/>
-      <c r="C123" s="82"/>
-      <c r="D123" s="69" t="s">
+      <c r="B123" s="90"/>
+      <c r="C123" s="68"/>
+      <c r="D123" s="83" t="s">
         <v>58</v>
       </c>
       <c r="E123" s="39"/>
       <c r="F123" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G123" s="16">
         <v>416</v>
@@ -7847,39 +7853,39 @@
         <v>82</v>
       </c>
       <c r="O123" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P123" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q123" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R123" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S123" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T123" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A124" s="72"/>
-      <c r="B124" s="99"/>
-      <c r="C124" s="82"/>
-      <c r="D124" s="68"/>
+      <c r="A124" s="88"/>
+      <c r="B124" s="90"/>
+      <c r="C124" s="68"/>
+      <c r="D124" s="82"/>
       <c r="E124" s="39"/>
       <c r="F124" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G124" s="16">
         <v>448</v>
       </c>
       <c r="H124" s="39"/>
       <c r="I124" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>78</v>
@@ -7897,36 +7903,36 @@
         <v>82</v>
       </c>
       <c r="O124" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P124" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q124" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R124" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S124" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T124" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A125" s="71">
+      <c r="A125" s="87">
         <v>76</v>
       </c>
-      <c r="B125" s="99"/>
-      <c r="C125" s="82"/>
-      <c r="D125" s="69" t="s">
+      <c r="B125" s="90"/>
+      <c r="C125" s="68"/>
+      <c r="D125" s="83" t="s">
         <v>59</v>
       </c>
       <c r="E125" s="39"/>
       <c r="F125" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G125" s="16">
         <v>416</v>
@@ -7949,39 +7955,39 @@
         <v>82</v>
       </c>
       <c r="O125" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P125" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q125" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R125" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S125" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T125" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A126" s="72"/>
-      <c r="B126" s="99"/>
-      <c r="C126" s="82"/>
-      <c r="D126" s="68"/>
+      <c r="A126" s="88"/>
+      <c r="B126" s="90"/>
+      <c r="C126" s="68"/>
+      <c r="D126" s="82"/>
       <c r="E126" s="39"/>
       <c r="F126" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G126" s="16">
         <v>448</v>
       </c>
       <c r="H126" s="39"/>
       <c r="I126" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>78</v>
@@ -7999,36 +8005,36 @@
         <v>82</v>
       </c>
       <c r="O126" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P126" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q126" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R126" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S126" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T126" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A127" s="71">
+      <c r="A127" s="87">
         <v>77</v>
       </c>
-      <c r="B127" s="99"/>
-      <c r="C127" s="82"/>
-      <c r="D127" s="69" t="s">
+      <c r="B127" s="90"/>
+      <c r="C127" s="68"/>
+      <c r="D127" s="83" t="s">
         <v>60</v>
       </c>
       <c r="E127" s="39"/>
       <c r="F127" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G127" s="16">
         <v>416</v>
@@ -8051,39 +8057,39 @@
         <v>82</v>
       </c>
       <c r="O127" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P127" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q127" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R127" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S127" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T127" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="72"/>
-      <c r="B128" s="99"/>
-      <c r="C128" s="83"/>
-      <c r="D128" s="70"/>
+      <c r="A128" s="88"/>
+      <c r="B128" s="90"/>
+      <c r="C128" s="69"/>
+      <c r="D128" s="104"/>
       <c r="E128" s="41"/>
       <c r="F128" s="49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G128" s="50">
         <v>448</v>
       </c>
       <c r="H128" s="41"/>
       <c r="I128" s="59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J128" s="11" t="s">
         <v>78</v>
@@ -8101,31 +8107,31 @@
         <v>82</v>
       </c>
       <c r="O128" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P128" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q128" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R128" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S128" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T128" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A129" s="36">
         <v>78</v>
       </c>
-      <c r="B129" s="99"/>
-      <c r="C129" s="81" t="s">
-        <v>149</v>
+      <c r="B129" s="90"/>
+      <c r="C129" s="67" t="s">
+        <v>147</v>
       </c>
       <c r="D129" s="29" t="s">
         <v>61</v>
@@ -8155,30 +8161,30 @@
         <v>82</v>
       </c>
       <c r="O129" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P129" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q129" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R129" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S129" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T129" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="130" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A130" s="36">
         <v>79</v>
       </c>
-      <c r="B130" s="99"/>
-      <c r="C130" s="82"/>
+      <c r="B130" s="90"/>
+      <c r="C130" s="68"/>
       <c r="D130" s="30" t="s">
         <v>62</v>
       </c>
@@ -8207,30 +8213,30 @@
         <v>82</v>
       </c>
       <c r="O130" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P130" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q130" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R130" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T130" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="131" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A131" s="36">
         <v>80</v>
       </c>
-      <c r="B131" s="99"/>
-      <c r="C131" s="82"/>
+      <c r="B131" s="90"/>
+      <c r="C131" s="68"/>
       <c r="D131" s="30" t="s">
         <v>63</v>
       </c>
@@ -8259,30 +8265,30 @@
         <v>82</v>
       </c>
       <c r="O131" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P131" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q131" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R131" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T131" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="37">
         <v>81</v>
       </c>
-      <c r="B132" s="101"/>
-      <c r="C132" s="83"/>
+      <c r="B132" s="92"/>
+      <c r="C132" s="69"/>
       <c r="D132" s="33" t="s">
         <v>64</v>
       </c>
@@ -8311,47 +8317,47 @@
         <v>82</v>
       </c>
       <c r="O132" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P132" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q132" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R132" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S132" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T132" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="133" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="76">
-        <v>82</v>
-      </c>
-      <c r="B133" s="104" t="s">
+      <c r="A133" s="93">
+        <v>82</v>
+      </c>
+      <c r="B133" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="C133" s="81" t="s">
-        <v>150</v>
-      </c>
-      <c r="D133" s="67" t="s">
+      <c r="C133" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="D133" s="81" t="s">
         <v>66</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H133" s="38"/>
       <c r="I133" s="61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J133" s="3" t="s">
         <v>78</v>
@@ -8369,32 +8375,32 @@
         <v>82</v>
       </c>
       <c r="O133" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P133" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q133" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="R133" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="S133" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="T133" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q133" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="R133" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="S133" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="T133" s="21" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="134" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A134" s="72"/>
-      <c r="B134" s="105"/>
-      <c r="C134" s="82"/>
-      <c r="D134" s="68"/>
+      <c r="A134" s="88"/>
+      <c r="B134" s="79"/>
+      <c r="C134" s="68"/>
+      <c r="D134" s="82"/>
       <c r="E134" s="39"/>
       <c r="F134" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G134" s="16">
         <v>438</v>
@@ -8419,43 +8425,43 @@
         <v>82</v>
       </c>
       <c r="O134" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P134" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q134" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="R134" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S134" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T134" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="Q134" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="R134" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S134" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T134" s="18" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="135" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A135" s="71">
+      <c r="A135" s="87">
         <v>83</v>
       </c>
-      <c r="B135" s="105"/>
-      <c r="C135" s="82"/>
-      <c r="D135" s="74" t="s">
+      <c r="B135" s="79"/>
+      <c r="C135" s="68"/>
+      <c r="D135" s="76" t="s">
         <v>67</v>
       </c>
       <c r="E135" s="39"/>
       <c r="F135" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H135" s="39"/>
       <c r="I135" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>78</v>
@@ -8473,32 +8479,32 @@
         <v>82</v>
       </c>
       <c r="O135" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P135" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q135" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="R135" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S135" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T135" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="Q135" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="R135" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S135" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T135" s="18" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="136" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A136" s="72"/>
-      <c r="B136" s="105"/>
-      <c r="C136" s="82"/>
-      <c r="D136" s="75"/>
+      <c r="A136" s="88"/>
+      <c r="B136" s="79"/>
+      <c r="C136" s="68"/>
+      <c r="D136" s="103"/>
       <c r="E136" s="39"/>
       <c r="F136" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G136" s="16">
         <v>438</v>
@@ -8523,43 +8529,43 @@
         <v>82</v>
       </c>
       <c r="O136" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P136" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q136" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="R136" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S136" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T136" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="Q136" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="R136" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S136" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T136" s="18" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="137" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A137" s="71">
+      <c r="A137" s="87">
         <v>84</v>
       </c>
-      <c r="B137" s="105"/>
-      <c r="C137" s="82"/>
-      <c r="D137" s="69" t="s">
+      <c r="B137" s="79"/>
+      <c r="C137" s="68"/>
+      <c r="D137" s="83" t="s">
         <v>68</v>
       </c>
       <c r="E137" s="39"/>
       <c r="F137" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H137" s="39"/>
       <c r="I137" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>78</v>
@@ -8577,32 +8583,32 @@
         <v>82</v>
       </c>
       <c r="O137" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P137" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q137" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="R137" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S137" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T137" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="Q137" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="R137" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S137" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T137" s="18" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="138" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A138" s="72"/>
-      <c r="B138" s="105"/>
-      <c r="C138" s="82"/>
-      <c r="D138" s="68"/>
+      <c r="A138" s="88"/>
+      <c r="B138" s="79"/>
+      <c r="C138" s="68"/>
+      <c r="D138" s="82"/>
       <c r="E138" s="39"/>
       <c r="F138" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G138" s="16">
         <v>438</v>
@@ -8627,43 +8633,43 @@
         <v>82</v>
       </c>
       <c r="O138" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P138" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q138" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="R138" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S138" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T138" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="Q138" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="R138" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S138" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T138" s="18" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="139" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A139" s="71">
-        <v>85</v>
-      </c>
-      <c r="B139" s="105"/>
-      <c r="C139" s="82"/>
-      <c r="D139" s="69" t="s">
+      <c r="A139" s="87">
+        <v>85</v>
+      </c>
+      <c r="B139" s="79"/>
+      <c r="C139" s="68"/>
+      <c r="D139" s="83" t="s">
         <v>69</v>
       </c>
       <c r="E139" s="39"/>
       <c r="F139" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G139" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H139" s="39"/>
       <c r="I139" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>78</v>
@@ -8681,32 +8687,32 @@
         <v>82</v>
       </c>
       <c r="O139" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P139" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q139" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="R139" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S139" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T139" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="Q139" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="R139" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S139" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T139" s="18" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="140" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="72"/>
-      <c r="B140" s="105"/>
-      <c r="C140" s="83"/>
-      <c r="D140" s="70"/>
+      <c r="A140" s="88"/>
+      <c r="B140" s="79"/>
+      <c r="C140" s="69"/>
+      <c r="D140" s="104"/>
       <c r="E140" s="41"/>
       <c r="F140" s="49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G140" s="50">
         <v>438</v>
@@ -8731,38 +8737,38 @@
         <v>82</v>
       </c>
       <c r="O140" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P140" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q140" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="R140" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="S140" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T140" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="Q140" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="R140" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="S140" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="T140" s="19" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="141" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="71">
-        <v>86</v>
-      </c>
-      <c r="B141" s="105"/>
-      <c r="C141" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="D141" s="67" t="s">
+      <c r="A141" s="87">
+        <v>86</v>
+      </c>
+      <c r="B141" s="79"/>
+      <c r="C141" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="D141" s="81" t="s">
         <v>70</v>
       </c>
       <c r="E141" s="38"/>
       <c r="F141" s="47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G141" s="15">
         <v>417</v>
@@ -8785,39 +8791,39 @@
         <v>82</v>
       </c>
       <c r="O141" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P141" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q141" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R141" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S141" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T141" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A142" s="72"/>
-      <c r="B142" s="105"/>
-      <c r="C142" s="82"/>
-      <c r="D142" s="68"/>
+      <c r="A142" s="88"/>
+      <c r="B142" s="79"/>
+      <c r="C142" s="68"/>
+      <c r="D142" s="82"/>
       <c r="E142" s="39"/>
       <c r="F142" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G142" s="16">
         <v>449</v>
       </c>
       <c r="H142" s="39"/>
       <c r="I142" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>78</v>
@@ -8835,36 +8841,36 @@
         <v>82</v>
       </c>
       <c r="O142" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P142" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q142" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="R142" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S142" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T142" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="Q142" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="R142" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S142" s="1" t="s">
+    </row>
+    <row r="143" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A143" s="87">
         <v>87</v>
       </c>
-      <c r="T142" s="18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A143" s="71">
-        <v>87</v>
-      </c>
-      <c r="B143" s="105"/>
-      <c r="C143" s="82"/>
-      <c r="D143" s="69" t="s">
+      <c r="B143" s="79"/>
+      <c r="C143" s="68"/>
+      <c r="D143" s="83" t="s">
         <v>71</v>
       </c>
       <c r="E143" s="39"/>
       <c r="F143" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G143" s="16">
         <v>417</v>
@@ -8887,39 +8893,39 @@
         <v>82</v>
       </c>
       <c r="O143" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P143" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q143" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R143" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S143" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T143" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A144" s="72"/>
-      <c r="B144" s="105"/>
-      <c r="C144" s="82"/>
-      <c r="D144" s="68"/>
+      <c r="A144" s="88"/>
+      <c r="B144" s="79"/>
+      <c r="C144" s="68"/>
+      <c r="D144" s="82"/>
       <c r="E144" s="39"/>
       <c r="F144" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G144" s="16">
         <v>449</v>
       </c>
       <c r="H144" s="39"/>
       <c r="I144" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>78</v>
@@ -8937,36 +8943,36 @@
         <v>82</v>
       </c>
       <c r="O144" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P144" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q144" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="R144" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S144" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T144" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="Q144" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="R144" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S144" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T144" s="18" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="145" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A145" s="71">
+      <c r="A145" s="87">
         <v>88</v>
       </c>
-      <c r="B145" s="105"/>
-      <c r="C145" s="82"/>
-      <c r="D145" s="69" t="s">
+      <c r="B145" s="79"/>
+      <c r="C145" s="68"/>
+      <c r="D145" s="83" t="s">
         <v>72</v>
       </c>
       <c r="E145" s="39"/>
       <c r="F145" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G145" s="16">
         <v>417</v>
@@ -8989,39 +8995,39 @@
         <v>82</v>
       </c>
       <c r="O145" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P145" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q145" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R145" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S145" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T145" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A146" s="72"/>
-      <c r="B146" s="105"/>
-      <c r="C146" s="82"/>
-      <c r="D146" s="68"/>
+      <c r="A146" s="88"/>
+      <c r="B146" s="79"/>
+      <c r="C146" s="68"/>
+      <c r="D146" s="82"/>
       <c r="E146" s="39"/>
       <c r="F146" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G146" s="16">
         <v>449</v>
       </c>
       <c r="H146" s="39"/>
       <c r="I146" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>78</v>
@@ -9039,36 +9045,36 @@
         <v>82</v>
       </c>
       <c r="O146" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P146" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q146" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="R146" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S146" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T146" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="Q146" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="R146" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S146" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T146" s="18" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="147" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A147" s="71">
+      <c r="A147" s="87">
         <v>89</v>
       </c>
-      <c r="B147" s="105"/>
-      <c r="C147" s="82"/>
-      <c r="D147" s="69" t="s">
+      <c r="B147" s="79"/>
+      <c r="C147" s="68"/>
+      <c r="D147" s="83" t="s">
         <v>73</v>
       </c>
       <c r="E147" s="39"/>
       <c r="F147" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G147" s="16">
         <v>417</v>
@@ -9091,39 +9097,39 @@
         <v>82</v>
       </c>
       <c r="O147" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P147" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q147" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R147" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S147" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T147" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="73"/>
-      <c r="B148" s="106"/>
-      <c r="C148" s="83"/>
-      <c r="D148" s="70"/>
+      <c r="A148" s="106"/>
+      <c r="B148" s="80"/>
+      <c r="C148" s="69"/>
+      <c r="D148" s="104"/>
       <c r="E148" s="41"/>
       <c r="F148" s="49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G148" s="50">
         <v>449</v>
       </c>
       <c r="H148" s="41"/>
       <c r="I148" s="60" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J148" s="11" t="s">
         <v>78</v>
@@ -9141,27 +9147,141 @@
         <v>82</v>
       </c>
       <c r="O148" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P148" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q148" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="R148" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="S148" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T148" s="19" t="s">
         <v>135</v>
-      </c>
-      <c r="Q148" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="R148" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="S148" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="T148" s="19" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:T148" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="138">
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C80:C87"/>
+    <mergeCell ref="C98:C107"/>
+    <mergeCell ref="C108:C112"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="C88:C97"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C121:C128"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="I1:T1"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="C29:C44"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="C15:C28"/>
+    <mergeCell ref="C64:C79"/>
+    <mergeCell ref="B48:B87"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B88:B112"/>
+    <mergeCell ref="B113:B132"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B15:B47"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A78:A79"/>
     <mergeCell ref="C141:C148"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A48:A49"/>
@@ -9186,120 +9306,6 @@
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B88:B112"/>
-    <mergeCell ref="B113:B132"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B15:B47"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C121:C128"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="I1:T1"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="C29:C44"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="B3:B14"/>
-    <mergeCell ref="C15:C28"/>
-    <mergeCell ref="C64:C79"/>
-    <mergeCell ref="B48:B87"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C80:C87"/>
-    <mergeCell ref="C98:C107"/>
-    <mergeCell ref="C108:C112"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="C88:C97"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="D125:D126"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions headings="1"/>
